--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\FMZ project\3.狼群策略\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595C1E8-D3F3-4F2A-A81E-3B0F11067F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC296982-3F9C-43B5-8BAA-B48B033CD6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="242">
   <si>
     <t>num</t>
   </si>
@@ -863,6 +863,23 @@
   </si>
   <si>
     <t>GKOS</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDOG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMUX</t>
+  </si>
+  <si>
+    <t>ARAV</t>
+  </si>
+  <si>
+    <t>SRGA</t>
   </si>
 </sst>
 </file>
@@ -1521,6 +1538,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1540,7 +1625,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1829,11 +1914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2342,7 +2427,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2357,7 +2442,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2372,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2387,7 +2472,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2402,7 +2487,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2417,7 +2502,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2432,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2447,7 +2532,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2462,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2477,7 +2562,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2492,7 +2577,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2507,7 +2592,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2522,7 +2607,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2537,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2552,7 +2637,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2567,7 +2652,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2582,7 +2667,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2597,7 +2682,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2612,7 +2697,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2627,7 +2712,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2642,7 +2727,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2657,7 +2742,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2672,7 +2757,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2687,7 +2772,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2702,7 +2787,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2717,7 +2802,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2732,7 +2817,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2747,7 +2832,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2762,7 +2847,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2777,7 +2862,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2792,7 +2877,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2807,7 +2892,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2822,7 +2907,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2837,7 +2922,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -2852,7 +2937,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -2867,7 +2952,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -2882,7 +2967,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -2897,7 +2982,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -2912,7 +2997,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -2927,7 +3012,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -2942,7 +3027,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -2957,7 +3042,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -2972,7 +3057,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -2987,7 +3072,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3002,7 +3087,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3017,7 +3102,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3032,7 +3117,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3047,7 +3132,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3062,7 +3147,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3077,7 +3162,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3092,7 +3177,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3107,7 +3192,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3122,7 +3207,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3137,7 +3222,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3152,7 +3237,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3167,7 +3252,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3182,7 +3267,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3197,7 +3282,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3212,7 +3297,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3227,7 +3312,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3242,7 +3327,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3257,7 +3342,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3272,7 +3357,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3287,7 +3372,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3302,7 +3387,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3317,7 +3402,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3332,7 +3417,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3347,7 +3432,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3362,7 +3447,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3377,7 +3462,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3392,7 +3477,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3407,7 +3492,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3422,7 +3507,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3437,7 +3522,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3452,7 +3537,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3467,7 +3552,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3482,7 +3567,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3497,7 +3582,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3512,7 +3597,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3527,7 +3612,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3542,7 +3627,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3557,7 +3642,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3572,7 +3657,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3587,7 +3672,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3602,7 +3687,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3617,7 +3702,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3632,7 +3717,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3647,7 +3732,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3662,7 +3747,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3677,7 +3762,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3692,7 +3777,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3707,7 +3792,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3722,7 +3807,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3737,7 +3822,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3752,7 +3837,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3767,7 +3852,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3782,7 +3867,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3797,7 +3882,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3812,7 +3897,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3827,7 +3912,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3842,7 +3927,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3857,7 +3942,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3872,7 +3957,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3887,7 +3972,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -3902,7 +3987,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -3917,7 +4002,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -3932,7 +4017,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -3947,7 +4032,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -3962,7 +4047,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -3977,7 +4062,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -3992,7 +4077,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4007,7 +4092,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4022,7 +4107,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4037,7 +4122,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4052,7 +4137,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4067,7 +4152,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4082,7 +4167,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4097,7 +4182,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4112,7 +4197,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4127,7 +4212,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4142,7 +4227,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4157,7 +4242,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4172,7 +4257,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4187,7 +4272,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4202,7 +4287,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4217,7 +4302,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4232,7 +4317,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4247,7 +4332,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4262,7 +4347,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4277,7 +4362,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4292,7 +4377,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4307,7 +4392,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4322,7 +4407,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4337,7 +4422,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4352,7 +4437,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4367,7 +4452,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4382,7 +4467,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4397,7 +4482,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4412,7 +4497,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4427,7 +4512,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4442,7 +4527,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4457,7 +4542,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4472,7 +4557,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4487,7 +4572,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4502,7 +4587,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4517,7 +4602,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4532,7 +4617,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4547,7 +4632,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4562,7 +4647,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4577,7 +4662,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4592,7 +4677,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4607,7 +4692,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4622,7 +4707,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4637,7 +4722,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4652,7 +4737,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4667,7 +4752,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4682,7 +4767,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4697,7 +4782,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4712,7 +4797,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4727,7 +4812,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4742,7 +4827,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4757,7 +4842,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4772,7 +4857,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4787,7 +4872,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4802,7 +4887,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4817,7 +4902,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4832,7 +4917,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4847,7 +4932,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4862,7 +4947,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4877,7 +4962,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4892,7 +4977,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -4907,7 +4992,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -4922,7 +5007,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -4937,7 +5022,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -4952,7 +5037,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -4967,7 +5052,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -4982,7 +5067,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -4997,7 +5082,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5012,7 +5097,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5027,7 +5112,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5042,7 +5127,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5057,7 +5142,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5072,7 +5157,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5087,7 +5172,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5102,7 +5187,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5117,7 +5202,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5132,7 +5217,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5147,7 +5232,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5162,7 +5247,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5177,7 +5262,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5192,7 +5277,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5207,7 +5292,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5222,7 +5307,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5237,7 +5322,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5252,7 +5337,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5267,7 +5352,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5282,7 +5367,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5297,7 +5382,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5312,7 +5397,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5327,7 +5412,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5337,11 +5422,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="230" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D230" s="1">
+        <f>COUNTIFS(B:B,B230)</f>
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D231" s="1">
+        <f>COUNTIFS(B:B,B231)</f>
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D232" s="1">
+        <f>COUNTIFS(B:B,B232)</f>
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D233" s="1">
+        <f>COUNTIFS(B:B,B233)</f>
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D234" s="1">
+        <f>COUNTIFS(B:B,B234)</f>
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E229">
-    <sortCondition ref="C2:C229"/>
-    <sortCondition ref="B2:B229"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E234">
+    <sortCondition ref="C2:C234"/>
+    <sortCondition ref="B2:B234"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\FMZ project\3.狼群策略\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595C1E8-D3F3-4F2A-A81E-3B0F11067F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10E742-979A-469C-902F-AA7D4404E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
   <si>
     <t>num</t>
   </si>
@@ -863,6 +863,41 @@
   </si>
   <si>
     <t>GKOS</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDOG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMUX</t>
+  </si>
+  <si>
+    <t>ARAV</t>
+  </si>
+  <si>
+    <t>SRGA</t>
+  </si>
+  <si>
+    <t>NVAX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGO</t>
+  </si>
+  <si>
+    <t>CMBM</t>
   </si>
 </sst>
 </file>
@@ -1521,6 +1556,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1540,7 +1643,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1829,11 +1932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2342,7 +2445,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2357,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2372,7 +2475,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2387,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2402,7 +2505,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2417,7 +2520,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2432,7 +2535,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2447,7 +2550,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2462,7 +2565,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2477,7 +2580,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2492,7 +2595,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2507,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2522,7 +2625,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2537,7 +2640,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2552,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2567,7 +2670,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2582,7 +2685,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2597,7 +2700,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2612,7 +2715,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2627,7 +2730,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2642,7 +2745,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2657,7 +2760,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2672,7 +2775,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2687,7 +2790,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2702,7 +2805,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2717,7 +2820,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2732,7 +2835,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2747,7 +2850,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2762,7 +2865,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2777,7 +2880,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2792,7 +2895,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2807,7 +2910,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2822,7 +2925,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2837,7 +2940,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -2852,7 +2955,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -2867,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -2882,7 +2985,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -2897,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -2912,7 +3015,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -2927,7 +3030,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -2942,7 +3045,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -2957,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -2972,7 +3075,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -2987,7 +3090,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3002,7 +3105,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3017,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3032,7 +3135,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3047,7 +3150,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3062,7 +3165,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3077,7 +3180,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3092,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3107,7 +3210,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3122,7 +3225,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3137,7 +3240,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3152,7 +3255,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3167,7 +3270,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3182,7 +3285,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3197,7 +3300,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3212,7 +3315,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3227,7 +3330,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3242,7 +3345,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3257,7 +3360,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3272,7 +3375,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3287,7 +3390,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3302,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3317,7 +3420,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3332,7 +3435,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3347,7 +3450,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3362,7 +3465,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3377,7 +3480,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3392,7 +3495,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3407,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3422,7 +3525,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3437,7 +3540,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3452,7 +3555,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3467,7 +3570,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3482,7 +3585,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3497,7 +3600,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3512,7 +3615,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3527,7 +3630,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3542,7 +3645,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3557,7 +3660,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3572,7 +3675,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3587,7 +3690,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3602,7 +3705,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3617,7 +3720,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3632,7 +3735,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3647,7 +3750,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3662,7 +3765,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3677,7 +3780,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3692,7 +3795,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3707,7 +3810,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3722,7 +3825,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3737,7 +3840,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3752,7 +3855,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3767,7 +3870,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3782,7 +3885,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3797,7 +3900,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3812,7 +3915,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3827,7 +3930,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3842,7 +3945,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3857,7 +3960,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3872,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3887,7 +3990,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -3902,7 +4005,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -3917,7 +4020,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -3932,7 +4035,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -3947,7 +4050,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -3962,7 +4065,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -3977,7 +4080,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -3992,7 +4095,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4007,7 +4110,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4022,7 +4125,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4037,7 +4140,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4052,7 +4155,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4067,7 +4170,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4082,7 +4185,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4097,7 +4200,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4112,7 +4215,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4127,7 +4230,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4142,7 +4245,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4157,7 +4260,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4172,7 +4275,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4187,7 +4290,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4202,7 +4305,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4217,7 +4320,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4232,7 +4335,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4247,7 +4350,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4262,7 +4365,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4277,7 +4380,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4292,7 +4395,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4307,7 +4410,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4322,7 +4425,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4337,7 +4440,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4352,7 +4455,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4367,7 +4470,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4382,7 +4485,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4397,7 +4500,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4412,7 +4515,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4427,7 +4530,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4442,7 +4545,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4457,7 +4560,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4472,7 +4575,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4487,7 +4590,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4502,7 +4605,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4517,7 +4620,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4532,7 +4635,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4547,7 +4650,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4562,7 +4665,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4577,7 +4680,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4592,7 +4695,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4607,7 +4710,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4622,7 +4725,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4637,7 +4740,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4652,7 +4755,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4667,7 +4770,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4682,7 +4785,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4697,7 +4800,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4712,7 +4815,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4727,7 +4830,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4742,7 +4845,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4757,7 +4860,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4772,7 +4875,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4787,7 +4890,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4802,7 +4905,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4817,7 +4920,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4832,7 +4935,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4847,7 +4950,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4862,7 +4965,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4877,7 +4980,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4892,7 +4995,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -4907,7 +5010,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -4922,7 +5025,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -4937,7 +5040,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -4952,7 +5055,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -4967,7 +5070,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -4982,7 +5085,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -4997,7 +5100,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5012,7 +5115,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5027,7 +5130,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5042,7 +5145,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5057,7 +5160,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5072,7 +5175,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5087,7 +5190,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5102,7 +5205,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5117,7 +5220,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5132,7 +5235,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5147,7 +5250,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5162,7 +5265,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5177,7 +5280,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5192,7 +5295,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5207,7 +5310,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5222,7 +5325,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5237,7 +5340,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5252,7 +5355,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5267,7 +5370,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5282,7 +5385,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5297,7 +5400,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5312,7 +5415,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5327,7 +5430,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5337,11 +5440,161 @@
         <v>0</v>
       </c>
     </row>
+    <row r="230" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D230" s="1">
+        <f>COUNTIFS(B:B,B230)</f>
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D231" s="1">
+        <f>COUNTIFS(B:B,B231)</f>
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D232" s="1">
+        <f>COUNTIFS(B:B,B232)</f>
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D233" s="1">
+        <f>COUNTIFS(B:B,B233)</f>
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D234" s="1">
+        <f>COUNTIFS(B:B,B234)</f>
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D235" s="1">
+        <f>COUNTIFS(B:B,B235)</f>
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D236" s="1">
+        <f>COUNTIFS(B:B,B236)</f>
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D237" s="1">
+        <f>COUNTIFS(B:B,B237)</f>
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D238" s="1">
+        <f>COUNTIFS(B:B,B238)</f>
+        <v>1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D239" s="1">
+        <f>COUNTIFS(B:B,B239)</f>
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E229">
-    <sortCondition ref="C2:C229"/>
-    <sortCondition ref="B2:B229"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E239">
+    <sortCondition ref="C2:C239"/>
+    <sortCondition ref="B2:B239"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC296982-3F9C-43B5-8BAA-B48B033CD6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10E742-979A-469C-902F-AA7D4404E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
   <si>
     <t>num</t>
   </si>
@@ -880,6 +880,24 @@
   </si>
   <si>
     <t>SRGA</t>
+  </si>
+  <si>
+    <t>NVAX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGO</t>
+  </si>
+  <si>
+    <t>CMBM</t>
   </si>
 </sst>
 </file>
@@ -1914,11 +1932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2982,7 +3000,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -2997,7 +3015,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -3012,7 +3030,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3027,7 +3045,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3042,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3057,7 +3075,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3072,7 +3090,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3087,7 +3105,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3102,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3117,7 +3135,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3132,7 +3150,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3147,7 +3165,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3162,7 +3180,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3177,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3192,7 +3210,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3207,7 +3225,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3222,7 +3240,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3237,7 +3255,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3252,7 +3270,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3267,7 +3285,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3282,7 +3300,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3297,7 +3315,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3312,7 +3330,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3327,7 +3345,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3342,7 +3360,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3357,7 +3375,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3372,7 +3390,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3387,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3402,7 +3420,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3417,7 +3435,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3432,7 +3450,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3447,7 +3465,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3462,7 +3480,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3477,7 +3495,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3492,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3507,7 +3525,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3522,7 +3540,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3537,7 +3555,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3552,7 +3570,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3567,7 +3585,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3582,7 +3600,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3597,7 +3615,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3612,7 +3630,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3627,7 +3645,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3642,7 +3660,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3657,7 +3675,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3672,7 +3690,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3687,7 +3705,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3702,7 +3720,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3717,7 +3735,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3732,7 +3750,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3747,7 +3765,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3762,7 +3780,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3777,7 +3795,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3792,7 +3810,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3807,7 +3825,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3822,7 +3840,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3837,7 +3855,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3852,7 +3870,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3867,7 +3885,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3882,7 +3900,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3897,7 +3915,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3912,7 +3930,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3927,7 +3945,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3942,7 +3960,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3957,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3972,7 +3990,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -3987,7 +4005,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4002,7 +4020,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4017,7 +4035,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4032,7 +4050,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4047,7 +4065,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4062,7 +4080,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4077,7 +4095,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4092,7 +4110,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4107,7 +4125,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4122,7 +4140,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4137,7 +4155,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4152,7 +4170,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4167,7 +4185,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4182,7 +4200,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4197,7 +4215,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4212,7 +4230,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4227,7 +4245,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4242,7 +4260,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4257,7 +4275,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4272,7 +4290,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4287,7 +4305,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4302,7 +4320,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4317,7 +4335,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4332,7 +4350,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4347,7 +4365,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4362,7 +4380,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4377,7 +4395,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4392,7 +4410,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4407,7 +4425,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4422,7 +4440,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4437,7 +4455,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4452,7 +4470,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4467,7 +4485,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4482,7 +4500,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4497,7 +4515,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4512,7 +4530,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4527,7 +4545,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4542,7 +4560,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4557,7 +4575,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4572,7 +4590,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4587,7 +4605,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4602,7 +4620,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4617,7 +4635,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4632,7 +4650,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4647,7 +4665,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4662,7 +4680,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4677,7 +4695,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4692,7 +4710,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4707,7 +4725,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4722,7 +4740,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4737,7 +4755,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4752,7 +4770,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4767,7 +4785,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4782,7 +4800,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4797,7 +4815,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4812,7 +4830,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4827,7 +4845,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4842,7 +4860,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4857,7 +4875,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4872,7 +4890,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4887,7 +4905,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4902,7 +4920,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4917,7 +4935,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4932,7 +4950,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4947,7 +4965,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4962,7 +4980,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4977,7 +4995,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -4992,7 +5010,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5007,7 +5025,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5022,7 +5040,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5037,7 +5055,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5052,7 +5070,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5067,7 +5085,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5082,7 +5100,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5097,7 +5115,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5112,7 +5130,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5127,7 +5145,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5142,7 +5160,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5157,7 +5175,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5172,7 +5190,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5187,7 +5205,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5202,7 +5220,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5217,7 +5235,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5232,7 +5250,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5247,7 +5265,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5262,7 +5280,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5277,7 +5295,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5292,7 +5310,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5307,7 +5325,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5322,7 +5340,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5337,7 +5355,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5352,7 +5370,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5367,7 +5385,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5382,7 +5400,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5397,7 +5415,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5412,7 +5430,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5427,7 +5445,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5442,7 +5460,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5457,7 +5475,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5472,7 +5490,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5487,7 +5505,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5497,11 +5515,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="235" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D235" s="1">
+        <f>COUNTIFS(B:B,B235)</f>
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D236" s="1">
+        <f>COUNTIFS(B:B,B236)</f>
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D237" s="1">
+        <f>COUNTIFS(B:B,B237)</f>
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D238" s="1">
+        <f>COUNTIFS(B:B,B238)</f>
+        <v>1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D239" s="1">
+        <f>COUNTIFS(B:B,B239)</f>
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E234">
-    <sortCondition ref="C2:C234"/>
-    <sortCondition ref="B2:B234"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E239">
+    <sortCondition ref="C2:C239"/>
+    <sortCondition ref="B2:B239"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10E742-979A-469C-902F-AA7D4404E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5B215-6117-4B76-A5E1-A1B3291E624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="252">
   <si>
     <t>num</t>
   </si>
@@ -898,6 +898,24 @@
   </si>
   <si>
     <t>CMBM</t>
+  </si>
+  <si>
+    <t>MOGO</t>
+  </si>
+  <si>
+    <t>LQDA</t>
+  </si>
+  <si>
+    <t>LCTX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DARE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACHV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1932,11 +1950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2355,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1">
         <f>COUNTIFS(B:B,B24)</f>
@@ -2370,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1">
         <f>COUNTIFS(B:B,B25)</f>
@@ -2385,7 +2403,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="D26" s="1">
         <f>COUNTIFS(B:B,B26)</f>
@@ -2400,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <f>COUNTIFS(B:B,B27)</f>
@@ -2415,7 +2433,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <f>COUNTIFS(B:B,B28)</f>
@@ -2430,7 +2448,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1">
         <f>COUNTIFS(B:B,B29)</f>
@@ -2445,7 +2463,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2460,7 +2478,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2475,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2490,7 +2508,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2505,7 +2523,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2520,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2535,7 +2553,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2550,7 +2568,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2565,7 +2583,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2580,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2595,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2610,7 +2628,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2625,7 +2643,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2640,7 +2658,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2655,7 +2673,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2670,7 +2688,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2685,7 +2703,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2700,7 +2718,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2715,7 +2733,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2730,7 +2748,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2745,7 +2763,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2760,7 +2778,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2775,7 +2793,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2790,7 +2808,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2805,7 +2823,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2820,7 +2838,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2835,7 +2853,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2850,7 +2868,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2865,7 +2883,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2880,7 +2898,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2895,7 +2913,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2910,7 +2928,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2925,7 +2943,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2940,7 +2958,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -2955,7 +2973,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -2970,7 +2988,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -2985,7 +3003,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -3000,7 +3018,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -3015,7 +3033,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -3030,7 +3048,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3045,7 +3063,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3060,7 +3078,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3075,7 +3093,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3090,7 +3108,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3105,7 +3123,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3120,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3135,7 +3153,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3150,7 +3168,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3165,7 +3183,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3180,7 +3198,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3195,7 +3213,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3210,7 +3228,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3225,7 +3243,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3240,7 +3258,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3255,7 +3273,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3270,7 +3288,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3285,7 +3303,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3300,7 +3318,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3315,7 +3333,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3330,7 +3348,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3345,7 +3363,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3360,7 +3378,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3375,7 +3393,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3390,7 +3408,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3405,7 +3423,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3420,7 +3438,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3435,7 +3453,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3450,7 +3468,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3465,7 +3483,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3480,7 +3498,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3495,7 +3513,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3510,7 +3528,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3525,7 +3543,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3540,7 +3558,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3555,7 +3573,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3570,7 +3588,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3585,7 +3603,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3600,7 +3618,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3615,7 +3633,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3630,7 +3648,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3645,7 +3663,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3660,7 +3678,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3675,7 +3693,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3690,7 +3708,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3705,7 +3723,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3720,7 +3738,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3735,7 +3753,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3750,7 +3768,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3765,7 +3783,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3780,7 +3798,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3795,7 +3813,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3810,7 +3828,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3825,7 +3843,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3840,7 +3858,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3855,7 +3873,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3870,7 +3888,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3885,7 +3903,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3900,7 +3918,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3915,7 +3933,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3930,7 +3948,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3945,7 +3963,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3960,7 +3978,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3975,7 +3993,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3990,7 +4008,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -4005,7 +4023,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4020,7 +4038,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4035,7 +4053,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4050,7 +4068,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4065,7 +4083,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4080,7 +4098,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4095,7 +4113,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4110,7 +4128,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4125,7 +4143,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4140,7 +4158,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4155,7 +4173,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4170,7 +4188,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4185,7 +4203,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4200,7 +4218,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4215,7 +4233,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4230,7 +4248,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4245,7 +4263,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4260,7 +4278,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4275,7 +4293,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4290,7 +4308,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4305,7 +4323,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4320,7 +4338,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4335,7 +4353,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4350,7 +4368,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4365,7 +4383,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4380,7 +4398,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4395,7 +4413,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4410,7 +4428,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4425,7 +4443,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4440,7 +4458,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4455,7 +4473,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4470,7 +4488,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4485,7 +4503,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4500,7 +4518,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4515,7 +4533,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4530,7 +4548,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4545,7 +4563,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4560,7 +4578,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4575,7 +4593,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4590,7 +4608,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4605,7 +4623,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4620,7 +4638,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4635,7 +4653,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4650,7 +4668,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4665,7 +4683,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4680,7 +4698,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4695,7 +4713,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4710,7 +4728,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4725,7 +4743,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4740,7 +4758,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4755,7 +4773,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4770,7 +4788,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4785,7 +4803,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4800,7 +4818,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4815,7 +4833,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4830,7 +4848,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4845,7 +4863,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4860,7 +4878,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4875,7 +4893,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4890,7 +4908,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4905,7 +4923,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4920,7 +4938,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4935,7 +4953,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4950,7 +4968,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4965,7 +4983,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4980,7 +4998,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4995,7 +5013,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -5010,7 +5028,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5025,7 +5043,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5040,7 +5058,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5055,7 +5073,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5070,7 +5088,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5085,7 +5103,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5100,7 +5118,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5115,7 +5133,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5130,7 +5148,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5145,7 +5163,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5160,7 +5178,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5175,7 +5193,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5190,7 +5208,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5205,7 +5223,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5220,7 +5238,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5235,7 +5253,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5250,7 +5268,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5265,7 +5283,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5280,7 +5298,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5295,7 +5313,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5310,7 +5328,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5325,7 +5343,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5340,7 +5358,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5355,7 +5373,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5370,7 +5388,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5385,7 +5403,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5400,7 +5418,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5415,7 +5433,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5430,7 +5448,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5445,7 +5463,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5460,7 +5478,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5475,7 +5493,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5490,7 +5508,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5505,7 +5523,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5520,7 +5538,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5535,7 +5553,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5550,7 +5568,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5565,7 +5583,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5580,7 +5598,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5590,11 +5608,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="240" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D240" s="1">
+        <f>COUNTIFS(B:B,B240)</f>
+        <v>1</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D241" s="1">
+        <f>COUNTIFS(B:B,B241)</f>
+        <v>1</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D242" s="1">
+        <f>COUNTIFS(B:B,B242)</f>
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D243" s="1">
+        <f>COUNTIFS(B:B,B243)</f>
+        <v>1</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D244" s="1">
+        <f>COUNTIFS(B:B,B244)</f>
+        <v>1</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E239">
-    <sortCondition ref="C2:C239"/>
-    <sortCondition ref="B2:B239"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E244">
+    <sortCondition ref="C2:C244"/>
+    <sortCondition ref="B2:B244"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5B215-6117-4B76-A5E1-A1B3291E624A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1250C-1755-444A-8429-C782704BF3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="255">
   <si>
     <t>num</t>
   </si>
@@ -916,6 +916,15 @@
   <si>
     <t>ACHV</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>TRU</t>
+  </si>
+  <si>
+    <t>FICO</t>
   </si>
 </sst>
 </file>
@@ -1574,74 +1583,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1661,7 +1602,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1950,11 +1891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A244" sqref="A244"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3228,7 +3169,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3243,7 +3184,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3258,7 +3199,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3273,7 +3214,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3288,7 +3229,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3303,7 +3244,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3318,7 +3259,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3333,7 +3274,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3348,7 +3289,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3363,7 +3304,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3378,7 +3319,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3393,7 +3334,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3408,7 +3349,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3423,7 +3364,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3438,7 +3379,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3453,7 +3394,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3468,7 +3409,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3483,7 +3424,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3498,7 +3439,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3513,7 +3454,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3528,7 +3469,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3543,7 +3484,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3558,7 +3499,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3573,7 +3514,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3588,7 +3529,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3603,7 +3544,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3618,7 +3559,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3633,7 +3574,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3648,7 +3589,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3663,7 +3604,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3678,7 +3619,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3693,7 +3634,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3708,7 +3649,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3723,7 +3664,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3738,7 +3679,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3753,7 +3694,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3768,7 +3709,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3783,7 +3724,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3798,7 +3739,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3813,7 +3754,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3828,7 +3769,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3843,7 +3784,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3858,7 +3799,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3873,7 +3814,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3888,7 +3829,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3903,7 +3844,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3918,7 +3859,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3933,7 +3874,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3948,7 +3889,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3963,7 +3904,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3978,7 +3919,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3993,7 +3934,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -4008,7 +3949,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -4023,7 +3964,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4038,7 +3979,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4053,7 +3994,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4068,7 +4009,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4083,7 +4024,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4098,7 +4039,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4113,7 +4054,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4128,7 +4069,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4143,7 +4084,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4158,7 +4099,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4173,7 +4114,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4188,7 +4129,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4203,7 +4144,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4218,7 +4159,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4233,7 +4174,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4248,7 +4189,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4263,7 +4204,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4278,7 +4219,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4293,7 +4234,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4308,7 +4249,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4323,7 +4264,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4338,7 +4279,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4353,7 +4294,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4368,7 +4309,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4383,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4398,7 +4339,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4413,7 +4354,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4428,7 +4369,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4443,7 +4384,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4458,7 +4399,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4473,7 +4414,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4488,7 +4429,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4503,7 +4444,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4518,7 +4459,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4533,7 +4474,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4548,7 +4489,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4563,7 +4504,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4578,7 +4519,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4593,7 +4534,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4608,7 +4549,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4623,7 +4564,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4638,7 +4579,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4653,7 +4594,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4668,7 +4609,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4683,7 +4624,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4698,7 +4639,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4713,7 +4654,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4728,7 +4669,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4743,7 +4684,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4758,7 +4699,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4773,7 +4714,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4788,7 +4729,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4803,7 +4744,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4818,7 +4759,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4833,7 +4774,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4848,7 +4789,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4863,7 +4804,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4878,7 +4819,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4893,7 +4834,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4908,7 +4849,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4923,7 +4864,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4938,7 +4879,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4953,7 +4894,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4968,7 +4909,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4983,7 +4924,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4998,7 +4939,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -5013,7 +4954,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -5028,7 +4969,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5043,7 +4984,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5058,7 +4999,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5073,7 +5014,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5088,7 +5029,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5103,7 +5044,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5118,7 +5059,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5133,7 +5074,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5148,7 +5089,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5163,7 +5104,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5178,7 +5119,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5193,7 +5134,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5208,7 +5149,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5223,7 +5164,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5238,7 +5179,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5253,7 +5194,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5268,7 +5209,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5283,7 +5224,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5298,7 +5239,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5313,7 +5254,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5328,7 +5269,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5343,7 +5284,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5358,7 +5299,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5373,7 +5314,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5388,7 +5329,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5403,7 +5344,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5418,7 +5359,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5433,7 +5374,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5448,7 +5389,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5463,7 +5404,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5478,7 +5419,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5493,7 +5434,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5508,7 +5449,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5523,7 +5464,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5538,7 +5479,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5553,7 +5494,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5568,7 +5509,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5583,7 +5524,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5598,7 +5539,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5613,7 +5554,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5628,7 +5569,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5643,7 +5584,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5658,7 +5599,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5673,7 +5614,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5683,11 +5624,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="245" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D245" s="1">
+        <f>COUNTIFS(B:B,B245)</f>
+        <v>1</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D246" s="1">
+        <f>COUNTIFS(B:B,B246)</f>
+        <v>1</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D247" s="1">
+        <f>COUNTIFS(B:B,B247)</f>
+        <v>1</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E244">
-    <sortCondition ref="C2:C244"/>
-    <sortCondition ref="B2:B244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E247">
+    <sortCondition ref="C2:C247"/>
+    <sortCondition ref="B2:B247"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1250C-1755-444A-8429-C782704BF3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445DB763-033D-4900-9675-895EAB0454E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stock_list完整版!$A$1:$E$183</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="259">
   <si>
     <t>num</t>
   </si>
@@ -925,6 +925,19 @@
   </si>
   <si>
     <t>FICO</t>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>LIVN</t>
+  </si>
+  <si>
+    <t>AGRX</t>
   </si>
 </sst>
 </file>
@@ -1891,11 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2357,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="D26" s="1">
         <f>COUNTIFS(B:B,B26)</f>
@@ -2359,7 +2372,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D27" s="1">
         <f>COUNTIFS(B:B,B27)</f>
@@ -2374,7 +2387,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="D28" s="1">
         <f>COUNTIFS(B:B,B28)</f>
@@ -2389,7 +2402,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
         <f>COUNTIFS(B:B,B29)</f>
@@ -2404,7 +2417,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2419,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2434,7 +2447,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2449,7 +2462,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2464,7 +2477,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2479,7 +2492,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2494,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2509,7 +2522,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2524,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2539,7 +2552,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2554,7 +2567,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2569,7 +2582,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2584,7 +2597,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2599,7 +2612,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2614,7 +2627,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2629,7 +2642,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2644,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2659,7 +2672,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2674,7 +2687,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2689,7 +2702,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2704,7 +2717,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2719,7 +2732,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2734,7 +2747,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2749,7 +2762,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2764,7 +2777,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2779,7 +2792,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2794,7 +2807,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2809,7 +2822,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2824,7 +2837,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2839,7 +2852,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2854,7 +2867,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2869,7 +2882,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2884,7 +2897,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2899,7 +2912,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -2914,7 +2927,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -2929,7 +2942,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -2944,7 +2957,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -2959,7 +2972,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -2974,7 +2987,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -2989,7 +3002,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3004,7 +3017,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3019,7 +3032,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3034,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3049,7 +3062,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3064,7 +3077,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3079,7 +3092,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3094,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3109,7 +3122,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3124,7 +3137,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3139,7 +3152,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3154,7 +3167,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3169,7 +3182,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3184,7 +3197,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3199,7 +3212,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3214,7 +3227,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3229,7 +3242,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3244,7 +3257,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3259,7 +3272,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3274,7 +3287,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3289,7 +3302,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3304,7 +3317,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3319,7 +3332,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3334,7 +3347,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3349,7 +3362,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3364,7 +3377,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3379,7 +3392,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3394,7 +3407,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3409,7 +3422,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3424,7 +3437,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3439,7 +3452,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3454,7 +3467,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3469,7 +3482,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3484,7 +3497,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3499,7 +3512,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3514,7 +3527,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3529,7 +3542,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3544,7 +3557,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3559,7 +3572,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3574,7 +3587,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3589,7 +3602,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3604,7 +3617,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3619,7 +3632,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3634,7 +3647,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3649,7 +3662,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3664,7 +3677,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3679,7 +3692,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3694,7 +3707,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3709,7 +3722,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3724,7 +3737,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3739,7 +3752,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3754,7 +3767,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3769,7 +3782,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3784,7 +3797,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3799,7 +3812,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3814,7 +3827,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3829,7 +3842,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3844,7 +3857,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3859,7 +3872,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3874,7 +3887,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3889,7 +3902,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3904,7 +3917,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3919,7 +3932,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3934,7 +3947,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3949,7 +3962,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -3964,7 +3977,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -3979,7 +3992,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -3994,7 +4007,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4009,7 +4022,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4024,7 +4037,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4039,7 +4052,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4054,7 +4067,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4069,7 +4082,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4084,7 +4097,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4099,7 +4112,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4114,7 +4127,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4129,7 +4142,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4144,7 +4157,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4159,7 +4172,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4174,7 +4187,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4189,7 +4202,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4204,7 +4217,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4219,7 +4232,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4234,7 +4247,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4249,7 +4262,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4264,7 +4277,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4279,7 +4292,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4294,7 +4307,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4309,7 +4322,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4324,7 +4337,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4339,7 +4352,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4354,7 +4367,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4369,7 +4382,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4384,7 +4397,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4399,7 +4412,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4414,7 +4427,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4429,7 +4442,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4444,7 +4457,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4459,7 +4472,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4474,7 +4487,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4489,7 +4502,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4504,7 +4517,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4519,7 +4532,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4534,7 +4547,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4549,7 +4562,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4564,7 +4577,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4579,7 +4592,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4594,7 +4607,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4609,7 +4622,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4624,7 +4637,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4639,7 +4652,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4654,7 +4667,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4669,7 +4682,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4684,7 +4697,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4699,7 +4712,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4714,7 +4727,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4729,7 +4742,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4744,7 +4757,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4759,7 +4772,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4774,7 +4787,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4789,7 +4802,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4804,7 +4817,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4819,7 +4832,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4834,7 +4847,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4849,7 +4862,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4864,7 +4877,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4879,7 +4892,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4894,7 +4907,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4909,7 +4922,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4924,7 +4937,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4939,7 +4952,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4954,7 +4967,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -4969,7 +4982,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -4984,7 +4997,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -4999,7 +5012,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5014,7 +5027,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5029,7 +5042,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5044,7 +5057,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5059,7 +5072,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5074,7 +5087,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5089,7 +5102,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5104,7 +5117,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5119,7 +5132,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5134,7 +5147,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5149,7 +5162,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5164,7 +5177,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5179,7 +5192,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5194,7 +5207,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5209,7 +5222,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5224,7 +5237,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5239,7 +5252,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5254,7 +5267,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5269,7 +5282,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5284,7 +5297,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5299,7 +5312,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5314,7 +5327,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5329,7 +5342,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5344,7 +5357,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5359,7 +5372,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5374,7 +5387,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5389,7 +5402,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5404,7 +5417,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5419,7 +5432,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5434,7 +5447,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5449,7 +5462,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5464,7 +5477,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5479,7 +5492,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5494,7 +5507,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5509,7 +5522,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5524,7 +5537,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5539,7 +5552,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5554,7 +5567,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5569,7 +5582,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5584,7 +5597,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5599,7 +5612,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5614,7 +5627,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5629,7 +5642,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="D245" s="1">
         <f>COUNTIFS(B:B,B245)</f>
@@ -5644,7 +5657,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D246" s="1">
         <f>COUNTIFS(B:B,B246)</f>
@@ -5659,7 +5672,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D247" s="1">
         <f>COUNTIFS(B:B,B247)</f>
@@ -5669,11 +5682,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="248" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D248" s="1">
+        <f>COUNTIFS(B:B,B248)</f>
+        <v>1</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D249" s="1">
+        <f>COUNTIFS(B:B,B249)</f>
+        <v>1</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D250" s="1">
+        <f>COUNTIFS(B:B,B250)</f>
+        <v>1</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D251" s="1">
+        <f>COUNTIFS(B:B,B251)</f>
+        <v>1</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E247">
-    <sortCondition ref="C2:C247"/>
-    <sortCondition ref="B2:B247"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E251">
+    <sortCondition ref="C2:C251"/>
+    <sortCondition ref="B2:B251"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445DB763-033D-4900-9675-895EAB0454E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08832ED3-5087-48FB-8DE8-45D0964332BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="262">
   <si>
     <t>num</t>
   </si>
@@ -938,6 +938,15 @@
   </si>
   <si>
     <t>AGRX</t>
+  </si>
+  <si>
+    <t>RSKD</t>
+  </si>
+  <si>
+    <t>OMGA</t>
+  </si>
+  <si>
+    <t>FDS</t>
   </si>
 </sst>
 </file>
@@ -1904,11 +1913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3377,7 +3386,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3392,7 +3401,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3407,7 +3416,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3422,7 +3431,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3437,7 +3446,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3452,7 +3461,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3467,7 +3476,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3482,7 +3491,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3497,7 +3506,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3512,7 +3521,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3527,7 +3536,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3542,7 +3551,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3557,7 +3566,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3572,7 +3581,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3587,7 +3596,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3602,7 +3611,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3617,7 +3626,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3632,7 +3641,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3647,7 +3656,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3662,7 +3671,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3677,7 +3686,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3692,7 +3701,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3707,7 +3716,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3722,7 +3731,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3737,7 +3746,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3752,7 +3761,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3767,7 +3776,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3782,7 +3791,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3797,7 +3806,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3812,7 +3821,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3827,7 +3836,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3842,7 +3851,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3857,7 +3866,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3872,7 +3881,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3887,7 +3896,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3902,7 +3911,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3917,7 +3926,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3932,7 +3941,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3947,7 +3956,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3962,7 +3971,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -3977,7 +3986,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -3992,7 +4001,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4007,7 +4016,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4022,7 +4031,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4037,7 +4046,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4052,7 +4061,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4067,7 +4076,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4082,7 +4091,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4097,7 +4106,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4112,7 +4121,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4127,7 +4136,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4142,7 +4151,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4157,7 +4166,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4172,7 +4181,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4187,7 +4196,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4202,7 +4211,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4217,7 +4226,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4232,7 +4241,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4247,7 +4256,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4262,7 +4271,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4277,7 +4286,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4292,7 +4301,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4307,7 +4316,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4322,7 +4331,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4337,7 +4346,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4352,7 +4361,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4367,7 +4376,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4382,7 +4391,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4397,7 +4406,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4412,7 +4421,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4427,7 +4436,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4442,7 +4451,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4457,7 +4466,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4472,7 +4481,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4487,7 +4496,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4502,7 +4511,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4517,7 +4526,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4532,7 +4541,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4547,7 +4556,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4562,7 +4571,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4577,7 +4586,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4592,7 +4601,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4607,7 +4616,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4622,7 +4631,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4637,7 +4646,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4652,7 +4661,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4667,7 +4676,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4682,7 +4691,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4697,7 +4706,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4712,7 +4721,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4727,7 +4736,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4742,7 +4751,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4757,7 +4766,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4772,7 +4781,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4787,7 +4796,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4802,7 +4811,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4817,7 +4826,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4832,7 +4841,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4847,7 +4856,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4862,7 +4871,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4877,7 +4886,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4892,7 +4901,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4907,7 +4916,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4922,7 +4931,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4937,7 +4946,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4952,7 +4961,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4967,7 +4976,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -4982,7 +4991,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -4997,7 +5006,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5012,7 +5021,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5027,7 +5036,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5042,7 +5051,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5057,7 +5066,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5072,7 +5081,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5087,7 +5096,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5102,7 +5111,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5117,7 +5126,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5132,7 +5141,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5147,7 +5156,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5162,7 +5171,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5177,7 +5186,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5192,7 +5201,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5207,7 +5216,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5222,7 +5231,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5237,7 +5246,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5252,7 +5261,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5267,7 +5276,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5282,7 +5291,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5297,7 +5306,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5312,7 +5321,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5327,7 +5336,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5342,7 +5351,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5357,7 +5366,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5372,7 +5381,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5387,7 +5396,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5402,7 +5411,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5417,7 +5426,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5432,7 +5441,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5447,7 +5456,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5462,7 +5471,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5477,7 +5486,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5492,7 +5501,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5507,7 +5516,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5522,7 +5531,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5537,7 +5546,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5552,7 +5561,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5567,7 +5576,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5582,7 +5591,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5597,7 +5606,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5612,7 +5621,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5627,7 +5636,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5642,7 +5651,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D245" s="1">
         <f>COUNTIFS(B:B,B245)</f>
@@ -5657,7 +5666,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="D246" s="1">
         <f>COUNTIFS(B:B,B246)</f>
@@ -5672,7 +5681,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="D247" s="1">
         <f>COUNTIFS(B:B,B247)</f>
@@ -5687,7 +5696,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D248" s="1">
         <f>COUNTIFS(B:B,B248)</f>
@@ -5702,7 +5711,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="D249" s="1">
         <f>COUNTIFS(B:B,B249)</f>
@@ -5717,7 +5726,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="D250" s="1">
         <f>COUNTIFS(B:B,B250)</f>
@@ -5732,7 +5741,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D251" s="1">
         <f>COUNTIFS(B:B,B251)</f>
@@ -5742,11 +5751,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="252" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D252" s="1">
+        <f>COUNTIFS(B:B,B252)</f>
+        <v>1</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D253" s="1">
+        <f>COUNTIFS(B:B,B253)</f>
+        <v>1</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D254" s="1">
+        <f>COUNTIFS(B:B,B254)</f>
+        <v>1</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E251">
-    <sortCondition ref="C2:C251"/>
-    <sortCondition ref="B2:B251"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E254">
+    <sortCondition ref="C2:C254"/>
+    <sortCondition ref="B2:B254"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Nutstore\.nutstore_NTY5MzcyOTYzQHFxLmNvbQ==\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08832ED3-5087-48FB-8DE8-45D0964332BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8861A2-4906-46F7-99DA-B5A7BDB2C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="269">
   <si>
     <t>num</t>
   </si>
@@ -947,6 +947,32 @@
   </si>
   <si>
     <t>FDS</t>
+  </si>
+  <si>
+    <t>ADSK</t>
+  </si>
+  <si>
+    <t>RCEL</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLTR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DKS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1605,6 +1631,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1624,7 +1718,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1913,11 +2007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2366,7 +2460,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D26" s="1">
         <f>COUNTIFS(B:B,B26)</f>
@@ -2381,7 +2475,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D27" s="1">
         <f>COUNTIFS(B:B,B27)</f>
@@ -2396,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="D28" s="1">
         <f>COUNTIFS(B:B,B28)</f>
@@ -2411,7 +2505,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1">
         <f>COUNTIFS(B:B,B29)</f>
@@ -2426,7 +2520,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2441,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2456,7 +2550,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2471,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2486,7 +2580,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2501,7 +2595,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2516,7 +2610,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2531,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2546,7 +2640,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2561,7 +2655,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2576,7 +2670,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2591,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2606,7 +2700,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2621,7 +2715,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2636,7 +2730,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2651,7 +2745,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2666,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2681,7 +2775,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2696,7 +2790,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2711,7 +2805,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2726,7 +2820,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2741,7 +2835,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2756,7 +2850,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2771,7 +2865,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2786,7 +2880,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2801,7 +2895,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2816,7 +2910,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2831,7 +2925,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2846,7 +2940,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2861,7 +2955,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2876,7 +2970,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2891,7 +2985,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2906,7 +3000,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2921,7 +3015,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -2936,7 +3030,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -2951,7 +3045,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -2966,7 +3060,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -2981,7 +3075,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -2996,7 +3090,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -3011,7 +3105,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3026,7 +3120,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3041,7 +3135,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3056,7 +3150,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3071,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3086,7 +3180,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3101,7 +3195,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3116,7 +3210,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3131,7 +3225,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3146,7 +3240,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3161,7 +3255,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3176,7 +3270,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3191,7 +3285,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3206,7 +3300,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3221,7 +3315,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3236,7 +3330,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3251,7 +3345,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3266,7 +3360,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3281,7 +3375,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3296,7 +3390,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3311,7 +3405,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3326,7 +3420,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3341,7 +3435,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3356,7 +3450,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3371,7 +3465,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3386,7 +3480,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3401,7 +3495,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3416,7 +3510,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3431,7 +3525,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3446,7 +3540,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3461,7 +3555,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3476,7 +3570,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3491,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3506,7 +3600,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3521,7 +3615,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3536,7 +3630,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3551,7 +3645,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3566,7 +3660,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3581,7 +3675,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3596,7 +3690,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3611,7 +3705,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3626,7 +3720,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3641,7 +3735,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3656,7 +3750,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3671,7 +3765,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3686,7 +3780,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3701,7 +3795,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3716,7 +3810,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3731,7 +3825,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3746,7 +3840,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3761,7 +3855,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3776,7 +3870,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3791,7 +3885,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3806,7 +3900,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3821,7 +3915,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3836,7 +3930,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3851,7 +3945,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3866,7 +3960,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3881,7 +3975,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3896,7 +3990,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3911,7 +4005,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3926,7 +4020,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3941,7 +4035,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3956,7 +4050,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -3971,7 +4065,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -3986,7 +4080,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4001,7 +4095,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4016,7 +4110,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4031,7 +4125,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4046,7 +4140,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4061,7 +4155,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4076,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4091,7 +4185,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4106,7 +4200,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4121,7 +4215,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4136,7 +4230,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4151,7 +4245,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4166,7 +4260,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4181,7 +4275,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4196,7 +4290,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4211,7 +4305,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4226,7 +4320,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4241,7 +4335,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4256,7 +4350,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4271,7 +4365,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4286,7 +4380,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4301,7 +4395,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4316,7 +4410,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4331,7 +4425,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4346,7 +4440,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4361,7 +4455,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4376,7 +4470,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4391,7 +4485,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4406,7 +4500,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4421,7 +4515,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4436,7 +4530,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4451,7 +4545,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4466,7 +4560,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4481,7 +4575,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4496,7 +4590,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4511,7 +4605,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4526,7 +4620,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4541,7 +4635,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4556,7 +4650,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4571,7 +4665,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4586,7 +4680,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4601,7 +4695,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4616,7 +4710,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4631,7 +4725,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4646,7 +4740,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4661,7 +4755,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4676,7 +4770,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4691,7 +4785,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4706,7 +4800,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4721,7 +4815,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4736,7 +4830,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4751,7 +4845,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4766,7 +4860,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4781,7 +4875,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4796,7 +4890,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4811,7 +4905,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4826,7 +4920,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4841,7 +4935,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4856,7 +4950,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4871,7 +4965,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4886,7 +4980,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4901,7 +4995,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4916,7 +5010,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4931,7 +5025,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4946,7 +5040,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -4961,7 +5055,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -4976,7 +5070,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -4991,7 +5085,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5006,7 +5100,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5021,7 +5115,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5036,7 +5130,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5051,7 +5145,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5066,7 +5160,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5081,7 +5175,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5096,7 +5190,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5111,7 +5205,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5126,7 +5220,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5141,7 +5235,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5156,7 +5250,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5171,7 +5265,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5186,7 +5280,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5201,7 +5295,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5216,7 +5310,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5231,7 +5325,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5246,7 +5340,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5261,7 +5355,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5276,7 +5370,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5291,7 +5385,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5306,7 +5400,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5321,7 +5415,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5336,7 +5430,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5351,7 +5445,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5366,7 +5460,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5381,7 +5475,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5396,7 +5490,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5411,7 +5505,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5426,7 +5520,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5441,7 +5535,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5456,7 +5550,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5471,7 +5565,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5486,7 +5580,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5501,7 +5595,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5516,7 +5610,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5531,7 +5625,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5546,7 +5640,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5561,7 +5655,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5576,7 +5670,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5591,7 +5685,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5606,7 +5700,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5621,7 +5715,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5636,7 +5730,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5651,7 +5745,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D245" s="1">
         <f>COUNTIFS(B:B,B245)</f>
@@ -5666,7 +5760,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D246" s="1">
         <f>COUNTIFS(B:B,B246)</f>
@@ -5681,7 +5775,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D247" s="1">
         <f>COUNTIFS(B:B,B247)</f>
@@ -5696,7 +5790,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D248" s="1">
         <f>COUNTIFS(B:B,B248)</f>
@@ -5711,7 +5805,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D249" s="1">
         <f>COUNTIFS(B:B,B249)</f>
@@ -5726,7 +5820,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="D250" s="1">
         <f>COUNTIFS(B:B,B250)</f>
@@ -5741,7 +5835,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D251" s="1">
         <f>COUNTIFS(B:B,B251)</f>
@@ -5756,7 +5850,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="D252" s="1">
         <f>COUNTIFS(B:B,B252)</f>
@@ -5771,7 +5865,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D253" s="1">
         <f>COUNTIFS(B:B,B253)</f>
@@ -5786,7 +5880,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D254" s="1">
         <f>COUNTIFS(B:B,B254)</f>
@@ -5796,11 +5890,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="255" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D255" s="1">
+        <f>COUNTIFS(B:B,B255)</f>
+        <v>1</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D256" s="1">
+        <f>COUNTIFS(B:B,B256)</f>
+        <v>1</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D257" s="1">
+        <f>COUNTIFS(B:B,B257)</f>
+        <v>1</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D258" s="1">
+        <f>COUNTIFS(B:B,B258)</f>
+        <v>1</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D259" s="1">
+        <f>COUNTIFS(B:B,B259)</f>
+        <v>1</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D260" s="1">
+        <f>COUNTIFS(B:B,B260)</f>
+        <v>1</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D261" s="1">
+        <f>COUNTIFS(B:B,B261)</f>
+        <v>1</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E254">
-    <sortCondition ref="C2:C254"/>
-    <sortCondition ref="B2:B254"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E261">
+    <sortCondition ref="C2:C261"/>
+    <sortCondition ref="B2:B261"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Nutstore\.nutstore_NTY5MzcyOTYzQHFxLmNvbQ==\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8861A2-4906-46F7-99DA-B5A7BDB2C2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31BE12A-2C5E-4A16-82F0-6F82719F9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="273">
   <si>
     <t>num</t>
   </si>
@@ -973,6 +973,20 @@
   <si>
     <t>DKS</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRCX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRSN</t>
+  </si>
+  <si>
+    <t>AXSM</t>
   </si>
 </sst>
 </file>
@@ -1631,74 +1645,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1718,7 +1664,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2007,11 +1953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A261" sqref="A261"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2730,7 +2676,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2745,7 +2691,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2760,7 +2706,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2775,7 +2721,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2790,7 +2736,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2805,7 +2751,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2820,7 +2766,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2835,7 +2781,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2850,7 +2796,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2865,7 +2811,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2880,7 +2826,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2895,7 +2841,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2910,7 +2856,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2925,7 +2871,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2940,7 +2886,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2955,7 +2901,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2970,7 +2916,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2985,7 +2931,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -3000,7 +2946,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -3015,7 +2961,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -3030,7 +2976,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -3045,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -3060,7 +3006,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -3075,7 +3021,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -3090,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -3105,7 +3051,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3120,7 +3066,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3135,7 +3081,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3150,7 +3096,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3165,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3180,7 +3126,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3195,7 +3141,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3210,7 +3156,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3225,7 +3171,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3240,7 +3186,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3255,7 +3201,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3270,7 +3216,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3285,7 +3231,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3300,7 +3246,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3315,7 +3261,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3330,7 +3276,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3345,7 +3291,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3360,7 +3306,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3375,7 +3321,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3390,7 +3336,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3405,7 +3351,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3420,7 +3366,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3435,7 +3381,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3450,7 +3396,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3465,7 +3411,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3480,7 +3426,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3495,7 +3441,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3510,7 +3456,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3525,7 +3471,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3540,7 +3486,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3555,7 +3501,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3570,7 +3516,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3585,7 +3531,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3600,7 +3546,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3615,7 +3561,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3630,7 +3576,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3645,7 +3591,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3660,7 +3606,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3675,7 +3621,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3690,7 +3636,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3705,7 +3651,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3720,7 +3666,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3735,7 +3681,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3750,7 +3696,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3765,7 +3711,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3780,7 +3726,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3795,7 +3741,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3810,7 +3756,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3825,7 +3771,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3840,7 +3786,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3855,7 +3801,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3870,7 +3816,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3885,7 +3831,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3900,7 +3846,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3915,7 +3861,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3930,7 +3876,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3945,7 +3891,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3960,7 +3906,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3975,7 +3921,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3990,7 +3936,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -4005,7 +3951,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -4020,7 +3966,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -4035,7 +3981,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -4050,7 +3996,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -4065,7 +4011,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -4080,7 +4026,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4095,7 +4041,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4110,7 +4056,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4125,7 +4071,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4140,7 +4086,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4155,7 +4101,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4170,7 +4116,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4185,7 +4131,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4200,7 +4146,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4215,7 +4161,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4230,7 +4176,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4245,7 +4191,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4260,7 +4206,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4275,7 +4221,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4290,7 +4236,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4305,7 +4251,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4320,7 +4266,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4335,7 +4281,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4350,7 +4296,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4365,7 +4311,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4380,7 +4326,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4395,7 +4341,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4410,7 +4356,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4425,7 +4371,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4440,7 +4386,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4455,7 +4401,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4470,7 +4416,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4485,7 +4431,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4500,7 +4446,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4515,7 +4461,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4530,7 +4476,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4545,7 +4491,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4560,7 +4506,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4575,7 +4521,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4590,7 +4536,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4605,7 +4551,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4620,7 +4566,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4635,7 +4581,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4650,7 +4596,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4665,7 +4611,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4680,7 +4626,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4695,7 +4641,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4710,7 +4656,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4725,7 +4671,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4740,7 +4686,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4755,7 +4701,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4770,7 +4716,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4785,7 +4731,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4800,7 +4746,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4815,7 +4761,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4830,7 +4776,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4845,7 +4791,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4860,7 +4806,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4875,7 +4821,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4890,7 +4836,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4905,7 +4851,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4920,7 +4866,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4935,7 +4881,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4950,7 +4896,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4965,7 +4911,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4980,7 +4926,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4995,7 +4941,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -5010,7 +4956,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -5025,7 +4971,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -5040,7 +4986,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -5055,7 +5001,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -5070,7 +5016,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -5085,7 +5031,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5100,7 +5046,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5115,7 +5061,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5130,7 +5076,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5145,7 +5091,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5160,7 +5106,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5175,7 +5121,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5190,7 +5136,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5205,7 +5151,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5220,7 +5166,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5235,7 +5181,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5250,7 +5196,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5265,7 +5211,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5280,7 +5226,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5295,7 +5241,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5310,7 +5256,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5325,7 +5271,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5340,7 +5286,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5355,7 +5301,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5370,7 +5316,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5385,7 +5331,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5400,7 +5346,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5415,7 +5361,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5430,7 +5376,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5445,7 +5391,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5460,7 +5406,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5475,7 +5421,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5490,7 +5436,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5505,7 +5451,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5520,7 +5466,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5535,7 +5481,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5550,7 +5496,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5565,7 +5511,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5580,7 +5526,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5595,7 +5541,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5610,7 +5556,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5625,7 +5571,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5640,7 +5586,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5655,7 +5601,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5670,7 +5616,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5685,7 +5631,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5700,7 +5646,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5715,7 +5661,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5730,7 +5676,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5745,7 +5691,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="D245" s="1">
         <f>COUNTIFS(B:B,B245)</f>
@@ -5760,7 +5706,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D246" s="1">
         <f>COUNTIFS(B:B,B246)</f>
@@ -5775,7 +5721,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="D247" s="1">
         <f>COUNTIFS(B:B,B247)</f>
@@ -5790,7 +5736,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D248" s="1">
         <f>COUNTIFS(B:B,B248)</f>
@@ -5805,7 +5751,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D249" s="1">
         <f>COUNTIFS(B:B,B249)</f>
@@ -5820,7 +5766,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="D250" s="1">
         <f>COUNTIFS(B:B,B250)</f>
@@ -5835,7 +5781,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D251" s="1">
         <f>COUNTIFS(B:B,B251)</f>
@@ -5850,7 +5796,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D252" s="1">
         <f>COUNTIFS(B:B,B252)</f>
@@ -5865,7 +5811,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D253" s="1">
         <f>COUNTIFS(B:B,B253)</f>
@@ -5880,7 +5826,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="D254" s="1">
         <f>COUNTIFS(B:B,B254)</f>
@@ -5895,7 +5841,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D255" s="1">
         <f>COUNTIFS(B:B,B255)</f>
@@ -5910,7 +5856,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D256" s="1">
         <f>COUNTIFS(B:B,B256)</f>
@@ -5925,7 +5871,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="D257" s="1">
         <f>COUNTIFS(B:B,B257)</f>
@@ -5940,7 +5886,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D258" s="1">
         <f>COUNTIFS(B:B,B258)</f>
@@ -5955,7 +5901,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="D259" s="1">
         <f>COUNTIFS(B:B,B259)</f>
@@ -5970,7 +5916,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D260" s="1">
         <f>COUNTIFS(B:B,B260)</f>
@@ -5985,7 +5931,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D261" s="1">
         <f>COUNTIFS(B:B,B261)</f>
@@ -5995,11 +5941,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="262" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D262" s="1">
+        <f>COUNTIFS(B:B,B262)</f>
+        <v>1</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D263" s="1">
+        <f>COUNTIFS(B:B,B263)</f>
+        <v>1</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D264" s="1">
+        <f>COUNTIFS(B:B,B264)</f>
+        <v>1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D265" s="1">
+        <f>COUNTIFS(B:B,B265)</f>
+        <v>1</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E261">
-    <sortCondition ref="C2:C261"/>
-    <sortCondition ref="B2:B261"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E265">
+    <sortCondition ref="C2:C265"/>
+    <sortCondition ref="B2:B265"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31BE12A-2C5E-4A16-82F0-6F82719F9E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FAD30C-4D11-4E84-958B-FB21FD4CCAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stock_list完整版!$A$1:$E$183</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="280">
   <si>
     <t>num</t>
   </si>
@@ -987,6 +987,30 @@
   </si>
   <si>
     <t>AXSM</t>
+  </si>
+  <si>
+    <t>TECH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BILL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDAY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADGI</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>IMAB</t>
+  </si>
+  <si>
+    <t>GLSI</t>
   </si>
 </sst>
 </file>
@@ -1953,11 +1977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2406,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D26" s="1">
         <f>COUNTIFS(B:B,B26)</f>
@@ -2421,7 +2445,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D27" s="1">
         <f>COUNTIFS(B:B,B27)</f>
@@ -2436,7 +2460,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" s="1">
         <f>COUNTIFS(B:B,B28)</f>
@@ -2451,7 +2475,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="D29" s="1">
         <f>COUNTIFS(B:B,B29)</f>
@@ -2466,7 +2490,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2481,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2496,7 +2520,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2511,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2526,7 +2550,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2541,7 +2565,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2556,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2571,7 +2595,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2586,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2601,7 +2625,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2616,7 +2640,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2631,7 +2655,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2646,7 +2670,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2661,7 +2685,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2676,7 +2700,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2691,7 +2715,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2706,7 +2730,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2721,7 +2745,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2736,7 +2760,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2751,7 +2775,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2766,7 +2790,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2781,7 +2805,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2796,7 +2820,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2811,7 +2835,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2826,7 +2850,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2841,7 +2865,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2856,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2871,7 +2895,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2886,7 +2910,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2901,7 +2925,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2916,7 +2940,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2931,7 +2955,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2946,7 +2970,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2961,7 +2985,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -2976,7 +3000,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -2991,7 +3015,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -3006,7 +3030,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -3021,7 +3045,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -3036,7 +3060,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -3051,7 +3075,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3066,7 +3090,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3081,7 +3105,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3096,7 +3120,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3111,7 +3135,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3126,7 +3150,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3141,7 +3165,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3156,7 +3180,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3171,7 +3195,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3186,7 +3210,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3201,7 +3225,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3216,7 +3240,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3231,7 +3255,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3246,7 +3270,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3261,7 +3285,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3276,7 +3300,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3291,7 +3315,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3306,7 +3330,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3321,7 +3345,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3336,7 +3360,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3351,7 +3375,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3366,7 +3390,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3381,7 +3405,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3396,7 +3420,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3411,7 +3435,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3426,7 +3450,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3441,7 +3465,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3456,7 +3480,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3471,7 +3495,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3486,7 +3510,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3501,7 +3525,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3516,7 +3540,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3531,7 +3555,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3546,7 +3570,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3561,7 +3585,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3576,7 +3600,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3591,7 +3615,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3606,7 +3630,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3621,7 +3645,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3636,7 +3660,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3651,7 +3675,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3666,7 +3690,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3681,7 +3705,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3696,7 +3720,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3711,7 +3735,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3726,7 +3750,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3741,7 +3765,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3756,7 +3780,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3771,7 +3795,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3786,7 +3810,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3801,7 +3825,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3816,7 +3840,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3831,7 +3855,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3846,7 +3870,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3861,7 +3885,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3876,7 +3900,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3891,7 +3915,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3906,7 +3930,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3921,7 +3945,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3936,7 +3960,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3951,7 +3975,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3966,7 +3990,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -3981,7 +4005,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -3996,7 +4020,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -4011,7 +4035,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -4026,7 +4050,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4041,7 +4065,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4056,7 +4080,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4071,7 +4095,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4086,7 +4110,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4101,7 +4125,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4116,7 +4140,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4131,7 +4155,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4146,7 +4170,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4161,7 +4185,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4176,7 +4200,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4191,7 +4215,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4206,7 +4230,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4221,7 +4245,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4236,7 +4260,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4251,7 +4275,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4266,7 +4290,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4281,7 +4305,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4296,7 +4320,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4311,7 +4335,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4326,7 +4350,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4341,7 +4365,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4356,7 +4380,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4371,7 +4395,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4386,7 +4410,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4401,7 +4425,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4416,7 +4440,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4431,7 +4455,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4446,7 +4470,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4461,7 +4485,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4476,7 +4500,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4491,7 +4515,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4506,7 +4530,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4521,7 +4545,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4536,7 +4560,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4551,7 +4575,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4566,7 +4590,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4581,7 +4605,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4596,7 +4620,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4611,7 +4635,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4626,7 +4650,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4641,7 +4665,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4656,7 +4680,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4671,7 +4695,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4686,7 +4710,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4701,7 +4725,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4716,7 +4740,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4731,7 +4755,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4746,7 +4770,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4761,7 +4785,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4776,7 +4800,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4791,7 +4815,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4806,7 +4830,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4821,7 +4845,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4836,7 +4860,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4851,7 +4875,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4866,7 +4890,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4881,7 +4905,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4896,7 +4920,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4911,7 +4935,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4926,7 +4950,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4941,7 +4965,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4956,7 +4980,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4971,7 +4995,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -4986,7 +5010,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -5001,7 +5025,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -5016,7 +5040,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -5031,7 +5055,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5046,7 +5070,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5061,7 +5085,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5076,7 +5100,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5091,7 +5115,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5106,7 +5130,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5121,7 +5145,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5136,7 +5160,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5151,7 +5175,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5166,7 +5190,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5181,7 +5205,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5196,7 +5220,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5211,7 +5235,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5226,7 +5250,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5241,7 +5265,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5256,7 +5280,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5271,7 +5295,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5286,7 +5310,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5301,7 +5325,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5316,7 +5340,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5331,7 +5355,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5346,7 +5370,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5361,7 +5385,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5376,7 +5400,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5391,7 +5415,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5406,7 +5430,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5421,7 +5445,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5436,7 +5460,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5451,7 +5475,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5466,7 +5490,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5481,7 +5505,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5496,7 +5520,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5511,7 +5535,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5526,7 +5550,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5541,7 +5565,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5556,7 +5580,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5571,7 +5595,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5586,7 +5610,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5601,7 +5625,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5616,7 +5640,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5631,7 +5655,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5646,7 +5670,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5661,7 +5685,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5676,7 +5700,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5691,7 +5715,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D245" s="1">
         <f>COUNTIFS(B:B,B245)</f>
@@ -5706,7 +5730,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D246" s="1">
         <f>COUNTIFS(B:B,B246)</f>
@@ -5721,7 +5745,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="D247" s="1">
         <f>COUNTIFS(B:B,B247)</f>
@@ -5736,7 +5760,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D248" s="1">
         <f>COUNTIFS(B:B,B248)</f>
@@ -5751,7 +5775,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D249" s="1">
         <f>COUNTIFS(B:B,B249)</f>
@@ -5766,7 +5790,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="D250" s="1">
         <f>COUNTIFS(B:B,B250)</f>
@@ -5781,7 +5805,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D251" s="1">
         <f>COUNTIFS(B:B,B251)</f>
@@ -5796,7 +5820,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="D252" s="1">
         <f>COUNTIFS(B:B,B252)</f>
@@ -5811,7 +5835,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="D253" s="1">
         <f>COUNTIFS(B:B,B253)</f>
@@ -5826,7 +5850,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="D254" s="1">
         <f>COUNTIFS(B:B,B254)</f>
@@ -5841,7 +5865,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D255" s="1">
         <f>COUNTIFS(B:B,B255)</f>
@@ -5856,7 +5880,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D256" s="1">
         <f>COUNTIFS(B:B,B256)</f>
@@ -5871,7 +5895,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D257" s="1">
         <f>COUNTIFS(B:B,B257)</f>
@@ -5886,7 +5910,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D258" s="1">
         <f>COUNTIFS(B:B,B258)</f>
@@ -5901,7 +5925,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D259" s="1">
         <f>COUNTIFS(B:B,B259)</f>
@@ -5916,7 +5940,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D260" s="1">
         <f>COUNTIFS(B:B,B260)</f>
@@ -5931,7 +5955,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="D261" s="1">
         <f>COUNTIFS(B:B,B261)</f>
@@ -5946,7 +5970,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D262" s="1">
         <f>COUNTIFS(B:B,B262)</f>
@@ -5961,7 +5985,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="D263" s="1">
         <f>COUNTIFS(B:B,B263)</f>
@@ -5976,7 +6000,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D264" s="1">
         <f>COUNTIFS(B:B,B264)</f>
@@ -5991,7 +6015,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D265" s="1">
         <f>COUNTIFS(B:B,B265)</f>
@@ -6001,11 +6025,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="266" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D266" s="1">
+        <f>COUNTIFS(B:B,B266)</f>
+        <v>1</v>
+      </c>
+      <c r="E266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D267" s="1">
+        <f>COUNTIFS(B:B,B267)</f>
+        <v>1</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D268" s="1">
+        <f>COUNTIFS(B:B,B268)</f>
+        <v>1</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D269" s="1">
+        <f>COUNTIFS(B:B,B269)</f>
+        <v>1</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D270" s="1">
+        <f>COUNTIFS(B:B,B270)</f>
+        <v>1</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D271" s="1">
+        <f>COUNTIFS(B:B,B271)</f>
+        <v>1</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D272" s="1">
+        <f>COUNTIFS(B:B,B272)</f>
+        <v>1</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E265">
-    <sortCondition ref="C2:C265"/>
-    <sortCondition ref="B2:B265"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E272">
+    <sortCondition ref="C2:C272"/>
+    <sortCondition ref="B2:B272"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FAD30C-4D11-4E84-958B-FB21FD4CCAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB37416-3FD4-418C-B0F4-5B1D3F87B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="286">
   <si>
     <t>num</t>
   </si>
@@ -1011,6 +1011,26 @@
   </si>
   <si>
     <t>GLSI</t>
+  </si>
+  <si>
+    <t>ASAN</t>
+  </si>
+  <si>
+    <t>NCNO</t>
+  </si>
+  <si>
+    <t>EXK</t>
+  </si>
+  <si>
+    <t>ACRS</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1669,6 +1689,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1688,7 +1776,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1977,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2370,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="D22" s="1">
         <f>COUNTIFS(B:B,B22)</f>
@@ -2385,7 +2473,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1">
         <f>COUNTIFS(B:B,B23)</f>
@@ -2400,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D24" s="1">
         <f>COUNTIFS(B:B,B24)</f>
@@ -2415,7 +2503,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D25" s="1">
         <f>COUNTIFS(B:B,B25)</f>
@@ -2430,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D26" s="1">
         <f>COUNTIFS(B:B,B26)</f>
@@ -2445,7 +2533,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1">
         <f>COUNTIFS(B:B,B27)</f>
@@ -2460,7 +2548,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D28" s="1">
         <f>COUNTIFS(B:B,B28)</f>
@@ -2475,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D29" s="1">
         <f>COUNTIFS(B:B,B29)</f>
@@ -2490,7 +2578,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="D30" s="1">
         <f>COUNTIFS(B:B,B30)</f>
@@ -2505,7 +2593,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D31" s="1">
         <f>COUNTIFS(B:B,B31)</f>
@@ -2520,7 +2608,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1">
         <f>COUNTIFS(B:B,B32)</f>
@@ -2535,7 +2623,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
         <f>COUNTIFS(B:B,B33)</f>
@@ -2550,7 +2638,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
         <f>COUNTIFS(B:B,B34)</f>
@@ -2565,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1">
         <f>COUNTIFS(B:B,B35)</f>
@@ -2580,7 +2668,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D36" s="1">
         <f>COUNTIFS(B:B,B36)</f>
@@ -2595,7 +2683,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="D37" s="1">
         <f>COUNTIFS(B:B,B37)</f>
@@ -2610,7 +2698,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1">
         <f>COUNTIFS(B:B,B38)</f>
@@ -2625,7 +2713,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1">
         <f>COUNTIFS(B:B,B39)</f>
@@ -2640,7 +2728,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="D40" s="1">
         <f>COUNTIFS(B:B,B40)</f>
@@ -2655,7 +2743,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D41" s="1">
         <f>COUNTIFS(B:B,B41)</f>
@@ -2670,7 +2758,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="D42" s="1">
         <f>COUNTIFS(B:B,B42)</f>
@@ -2685,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1">
         <f>COUNTIFS(B:B,B43)</f>
@@ -2700,7 +2788,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1">
         <f>COUNTIFS(B:B,B44)</f>
@@ -2715,7 +2803,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="D45" s="1">
         <f>COUNTIFS(B:B,B45)</f>
@@ -2730,7 +2818,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D46" s="1">
         <f>COUNTIFS(B:B,B46)</f>
@@ -2745,7 +2833,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="D47" s="1">
         <f>COUNTIFS(B:B,B47)</f>
@@ -2760,7 +2848,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="D48" s="1">
         <f>COUNTIFS(B:B,B48)</f>
@@ -2775,7 +2863,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="D49" s="1">
         <f>COUNTIFS(B:B,B49)</f>
@@ -2790,7 +2878,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1">
         <f>COUNTIFS(B:B,B50)</f>
@@ -2805,7 +2893,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
         <f>COUNTIFS(B:B,B51)</f>
@@ -2820,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1">
         <f>COUNTIFS(B:B,B52)</f>
@@ -2835,7 +2923,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D53" s="1">
         <f>COUNTIFS(B:B,B53)</f>
@@ -2850,7 +2938,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1">
         <f>COUNTIFS(B:B,B54)</f>
@@ -2865,7 +2953,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="D55" s="1">
         <f>COUNTIFS(B:B,B55)</f>
@@ -2880,7 +2968,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="D56" s="1">
         <f>COUNTIFS(B:B,B56)</f>
@@ -2895,7 +2983,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="D57" s="1">
         <f>COUNTIFS(B:B,B57)</f>
@@ -2910,7 +2998,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1">
         <f>COUNTIFS(B:B,B58)</f>
@@ -2925,7 +3013,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1">
         <f>COUNTIFS(B:B,B59)</f>
@@ -2940,7 +3028,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1">
         <f>COUNTIFS(B:B,B60)</f>
@@ -2955,7 +3043,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="D61" s="1">
         <f>COUNTIFS(B:B,B61)</f>
@@ -2970,7 +3058,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="D62" s="1">
         <f>COUNTIFS(B:B,B62)</f>
@@ -2985,7 +3073,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1">
         <f>COUNTIFS(B:B,B63)</f>
@@ -3000,7 +3088,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D64" s="1">
         <f>COUNTIFS(B:B,B64)</f>
@@ -3015,7 +3103,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1">
         <f>COUNTIFS(B:B,B65)</f>
@@ -3030,7 +3118,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="D66" s="1">
         <f>COUNTIFS(B:B,B66)</f>
@@ -3045,7 +3133,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D67" s="1">
         <f>COUNTIFS(B:B,B67)</f>
@@ -3060,7 +3148,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="D68" s="1">
         <f>COUNTIFS(B:B,B68)</f>
@@ -3075,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69" s="1">
         <f>COUNTIFS(B:B,B69)</f>
@@ -3090,7 +3178,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="D70" s="1">
         <f>COUNTIFS(B:B,B70)</f>
@@ -3105,7 +3193,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D71" s="1">
         <f>COUNTIFS(B:B,B71)</f>
@@ -3120,7 +3208,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1">
         <f>COUNTIFS(B:B,B72)</f>
@@ -3135,7 +3223,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="D73" s="1">
         <f>COUNTIFS(B:B,B73)</f>
@@ -3150,7 +3238,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1">
         <f>COUNTIFS(B:B,B74)</f>
@@ -3165,7 +3253,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="D75" s="1">
         <f>COUNTIFS(B:B,B75)</f>
@@ -3180,7 +3268,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="1">
         <f>COUNTIFS(B:B,B76)</f>
@@ -3195,7 +3283,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="D77" s="1">
         <f>COUNTIFS(B:B,B77)</f>
@@ -3210,7 +3298,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D78" s="1">
         <f>COUNTIFS(B:B,B78)</f>
@@ -3225,7 +3313,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1">
         <f>COUNTIFS(B:B,B79)</f>
@@ -3240,7 +3328,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="D80" s="1">
         <f>COUNTIFS(B:B,B80)</f>
@@ -3255,7 +3343,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D81" s="1">
         <f>COUNTIFS(B:B,B81)</f>
@@ -3270,7 +3358,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D82" s="1">
         <f>COUNTIFS(B:B,B82)</f>
@@ -3285,7 +3373,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D83" s="1">
         <f>COUNTIFS(B:B,B83)</f>
@@ -3300,7 +3388,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="D84" s="1">
         <f>COUNTIFS(B:B,B84)</f>
@@ -3315,7 +3403,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D85" s="1">
         <f>COUNTIFS(B:B,B85)</f>
@@ -3330,7 +3418,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="D86" s="1">
         <f>COUNTIFS(B:B,B86)</f>
@@ -3345,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D87" s="1">
         <f>COUNTIFS(B:B,B87)</f>
@@ -3360,7 +3448,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="D88" s="1">
         <f>COUNTIFS(B:B,B88)</f>
@@ -3375,7 +3463,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D89" s="1">
         <f>COUNTIFS(B:B,B89)</f>
@@ -3390,7 +3478,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="D90" s="1">
         <f>COUNTIFS(B:B,B90)</f>
@@ -3405,7 +3493,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="D91" s="1">
         <f>COUNTIFS(B:B,B91)</f>
@@ -3420,7 +3508,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="D92" s="1">
         <f>COUNTIFS(B:B,B92)</f>
@@ -3435,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D93" s="1">
         <f>COUNTIFS(B:B,B93)</f>
@@ -3450,7 +3538,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="D94" s="1">
         <f>COUNTIFS(B:B,B94)</f>
@@ -3465,7 +3553,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="D95" s="1">
         <f>COUNTIFS(B:B,B95)</f>
@@ -3480,7 +3568,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="D96" s="1">
         <f>COUNTIFS(B:B,B96)</f>
@@ -3495,7 +3583,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D97" s="1">
         <f>COUNTIFS(B:B,B97)</f>
@@ -3510,7 +3598,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1">
         <f>COUNTIFS(B:B,B98)</f>
@@ -3525,7 +3613,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="D99" s="1">
         <f>COUNTIFS(B:B,B99)</f>
@@ -3540,7 +3628,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="D100" s="1">
         <f>COUNTIFS(B:B,B100)</f>
@@ -3555,7 +3643,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D101" s="1">
         <f>COUNTIFS(B:B,B101)</f>
@@ -3570,7 +3658,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="D102" s="1">
         <f>COUNTIFS(B:B,B102)</f>
@@ -3585,7 +3673,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D103" s="1">
         <f>COUNTIFS(B:B,B103)</f>
@@ -3600,7 +3688,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="D104" s="1">
         <f>COUNTIFS(B:B,B104)</f>
@@ -3615,7 +3703,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D105" s="1">
         <f>COUNTIFS(B:B,B105)</f>
@@ -3630,7 +3718,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="D106" s="1">
         <f>COUNTIFS(B:B,B106)</f>
@@ -3645,7 +3733,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1">
         <f>COUNTIFS(B:B,B107)</f>
@@ -3660,7 +3748,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="D108" s="1">
         <f>COUNTIFS(B:B,B108)</f>
@@ -3675,7 +3763,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="D109" s="1">
         <f>COUNTIFS(B:B,B109)</f>
@@ -3690,7 +3778,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D110" s="1">
         <f>COUNTIFS(B:B,B110)</f>
@@ -3705,7 +3793,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D111" s="1">
         <f>COUNTIFS(B:B,B111)</f>
@@ -3720,7 +3808,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D112" s="1">
         <f>COUNTIFS(B:B,B112)</f>
@@ -3735,7 +3823,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D113" s="1">
         <f>COUNTIFS(B:B,B113)</f>
@@ -3750,7 +3838,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D114" s="1">
         <f>COUNTIFS(B:B,B114)</f>
@@ -3765,7 +3853,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="D115" s="1">
         <f>COUNTIFS(B:B,B115)</f>
@@ -3780,7 +3868,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="D116" s="1">
         <f>COUNTIFS(B:B,B116)</f>
@@ -3795,7 +3883,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D117" s="1">
         <f>COUNTIFS(B:B,B117)</f>
@@ -3810,7 +3898,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D118" s="1">
         <f>COUNTIFS(B:B,B118)</f>
@@ -3825,7 +3913,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="D119" s="1">
         <f>COUNTIFS(B:B,B119)</f>
@@ -3840,7 +3928,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D120" s="1">
         <f>COUNTIFS(B:B,B120)</f>
@@ -3855,7 +3943,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D121" s="1">
         <f>COUNTIFS(B:B,B121)</f>
@@ -3870,7 +3958,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="D122" s="1">
         <f>COUNTIFS(B:B,B122)</f>
@@ -3885,7 +3973,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D123" s="1">
         <f>COUNTIFS(B:B,B123)</f>
@@ -3900,7 +3988,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="D124" s="1">
         <f>COUNTIFS(B:B,B124)</f>
@@ -3915,7 +4003,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D125" s="1">
         <f>COUNTIFS(B:B,B125)</f>
@@ -3930,7 +4018,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D126" s="1">
         <f>COUNTIFS(B:B,B126)</f>
@@ -3945,7 +4033,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D127" s="1">
         <f>COUNTIFS(B:B,B127)</f>
@@ -3960,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="D128" s="1">
         <f>COUNTIFS(B:B,B128)</f>
@@ -3975,7 +4063,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="D129" s="1">
         <f>COUNTIFS(B:B,B129)</f>
@@ -3990,7 +4078,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D130" s="1">
         <f>COUNTIFS(B:B,B130)</f>
@@ -4005,7 +4093,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D131" s="1">
         <f>COUNTIFS(B:B,B131)</f>
@@ -4020,7 +4108,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="D132" s="1">
         <f>COUNTIFS(B:B,B132)</f>
@@ -4035,7 +4123,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D133" s="1">
         <f>COUNTIFS(B:B,B133)</f>
@@ -4050,7 +4138,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D134" s="1">
         <f>COUNTIFS(B:B,B134)</f>
@@ -4065,7 +4153,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D135" s="1">
         <f>COUNTIFS(B:B,B135)</f>
@@ -4080,7 +4168,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D136" s="1">
         <f>COUNTIFS(B:B,B136)</f>
@@ -4095,7 +4183,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="D137" s="1">
         <f>COUNTIFS(B:B,B137)</f>
@@ -4110,7 +4198,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="D138" s="1">
         <f>COUNTIFS(B:B,B138)</f>
@@ -4125,7 +4213,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D139" s="1">
         <f>COUNTIFS(B:B,B139)</f>
@@ -4140,7 +4228,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="D140" s="1">
         <f>COUNTIFS(B:B,B140)</f>
@@ -4155,7 +4243,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D141" s="1">
         <f>COUNTIFS(B:B,B141)</f>
@@ -4170,7 +4258,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="D142" s="1">
         <f>COUNTIFS(B:B,B142)</f>
@@ -4185,7 +4273,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D143" s="1">
         <f>COUNTIFS(B:B,B143)</f>
@@ -4200,7 +4288,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="D144" s="1">
         <f>COUNTIFS(B:B,B144)</f>
@@ -4215,7 +4303,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D145" s="1">
         <f>COUNTIFS(B:B,B145)</f>
@@ -4230,7 +4318,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="D146" s="1">
         <f>COUNTIFS(B:B,B146)</f>
@@ -4245,7 +4333,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D147" s="1">
         <f>COUNTIFS(B:B,B147)</f>
@@ -4260,7 +4348,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="D148" s="1">
         <f>COUNTIFS(B:B,B148)</f>
@@ -4275,7 +4363,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D149" s="1">
         <f>COUNTIFS(B:B,B149)</f>
@@ -4290,7 +4378,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D150" s="1">
         <f>COUNTIFS(B:B,B150)</f>
@@ -4305,7 +4393,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="D151" s="1">
         <f>COUNTIFS(B:B,B151)</f>
@@ -4320,7 +4408,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="D152" s="1">
         <f>COUNTIFS(B:B,B152)</f>
@@ -4335,7 +4423,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="D153" s="1">
         <f>COUNTIFS(B:B,B153)</f>
@@ -4350,7 +4438,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D154" s="1">
         <f>COUNTIFS(B:B,B154)</f>
@@ -4365,7 +4453,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="D155" s="1">
         <f>COUNTIFS(B:B,B155)</f>
@@ -4380,7 +4468,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D156" s="1">
         <f>COUNTIFS(B:B,B156)</f>
@@ -4395,7 +4483,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D157" s="1">
         <f>COUNTIFS(B:B,B157)</f>
@@ -4410,7 +4498,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D158" s="1">
         <f>COUNTIFS(B:B,B158)</f>
@@ -4425,7 +4513,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="D159" s="1">
         <f>COUNTIFS(B:B,B159)</f>
@@ -4440,7 +4528,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D160" s="1">
         <f>COUNTIFS(B:B,B160)</f>
@@ -4455,7 +4543,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D161" s="1">
         <f>COUNTIFS(B:B,B161)</f>
@@ -4470,7 +4558,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="D162" s="1">
         <f>COUNTIFS(B:B,B162)</f>
@@ -4485,7 +4573,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D163" s="1">
         <f>COUNTIFS(B:B,B163)</f>
@@ -4500,7 +4588,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="D164" s="1">
         <f>COUNTIFS(B:B,B164)</f>
@@ -4515,7 +4603,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D165" s="1">
         <f>COUNTIFS(B:B,B165)</f>
@@ -4530,7 +4618,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D166" s="1">
         <f>COUNTIFS(B:B,B166)</f>
@@ -4545,7 +4633,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="D167" s="1">
         <f>COUNTIFS(B:B,B167)</f>
@@ -4560,7 +4648,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="D168" s="1">
         <f>COUNTIFS(B:B,B168)</f>
@@ -4575,7 +4663,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D169" s="1">
         <f>COUNTIFS(B:B,B169)</f>
@@ -4590,7 +4678,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="D170" s="1">
         <f>COUNTIFS(B:B,B170)</f>
@@ -4605,7 +4693,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D171" s="1">
         <f>COUNTIFS(B:B,B171)</f>
@@ -4620,7 +4708,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D172" s="1">
         <f>COUNTIFS(B:B,B172)</f>
@@ -4635,7 +4723,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D173" s="1">
         <f>COUNTIFS(B:B,B173)</f>
@@ -4650,7 +4738,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="D174" s="1">
         <f>COUNTIFS(B:B,B174)</f>
@@ -4665,7 +4753,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="D175" s="1">
         <f>COUNTIFS(B:B,B175)</f>
@@ -4680,7 +4768,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D176" s="1">
         <f>COUNTIFS(B:B,B176)</f>
@@ -4695,7 +4783,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="D177" s="1">
         <f>COUNTIFS(B:B,B177)</f>
@@ -4710,7 +4798,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D178" s="1">
         <f>COUNTIFS(B:B,B178)</f>
@@ -4725,7 +4813,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="D179" s="1">
         <f>COUNTIFS(B:B,B179)</f>
@@ -4740,7 +4828,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="D180" s="1">
         <f>COUNTIFS(B:B,B180)</f>
@@ -4755,7 +4843,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="D181" s="1">
         <f>COUNTIFS(B:B,B181)</f>
@@ -4770,7 +4858,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="D182" s="1">
         <f>COUNTIFS(B:B,B182)</f>
@@ -4785,7 +4873,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="D183" s="1">
         <f>COUNTIFS(B:B,B183)</f>
@@ -4800,7 +4888,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D184" s="1">
         <f>COUNTIFS(B:B,B184)</f>
@@ -4815,7 +4903,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D185" s="1">
         <f>COUNTIFS(B:B,B185)</f>
@@ -4830,7 +4918,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="D186" s="1">
         <f>COUNTIFS(B:B,B186)</f>
@@ -4845,7 +4933,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="D187" s="1">
         <f>COUNTIFS(B:B,B187)</f>
@@ -4860,7 +4948,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D188" s="1">
         <f>COUNTIFS(B:B,B188)</f>
@@ -4875,7 +4963,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D189" s="1">
         <f>COUNTIFS(B:B,B189)</f>
@@ -4890,7 +4978,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D190" s="1">
         <f>COUNTIFS(B:B,B190)</f>
@@ -4905,7 +4993,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D191" s="1">
         <f>COUNTIFS(B:B,B191)</f>
@@ -4920,7 +5008,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D192" s="1">
         <f>COUNTIFS(B:B,B192)</f>
@@ -4935,7 +5023,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D193" s="1">
         <f>COUNTIFS(B:B,B193)</f>
@@ -4950,7 +5038,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D194" s="1">
         <f>COUNTIFS(B:B,B194)</f>
@@ -4965,7 +5053,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D195" s="1">
         <f>COUNTIFS(B:B,B195)</f>
@@ -4980,7 +5068,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D196" s="1">
         <f>COUNTIFS(B:B,B196)</f>
@@ -4995,7 +5083,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="D197" s="1">
         <f>COUNTIFS(B:B,B197)</f>
@@ -5010,7 +5098,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D198" s="1">
         <f>COUNTIFS(B:B,B198)</f>
@@ -5025,7 +5113,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D199" s="1">
         <f>COUNTIFS(B:B,B199)</f>
@@ -5040,7 +5128,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D200" s="1">
         <f>COUNTIFS(B:B,B200)</f>
@@ -5055,7 +5143,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D201" s="1">
         <f>COUNTIFS(B:B,B201)</f>
@@ -5070,7 +5158,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="D202" s="1">
         <f>COUNTIFS(B:B,B202)</f>
@@ -5085,7 +5173,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="D203" s="1">
         <f>COUNTIFS(B:B,B203)</f>
@@ -5100,7 +5188,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D204" s="1">
         <f>COUNTIFS(B:B,B204)</f>
@@ -5115,7 +5203,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D205" s="1">
         <f>COUNTIFS(B:B,B205)</f>
@@ -5130,7 +5218,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D206" s="1">
         <f>COUNTIFS(B:B,B206)</f>
@@ -5145,7 +5233,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="D207" s="1">
         <f>COUNTIFS(B:B,B207)</f>
@@ -5160,7 +5248,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="D208" s="1">
         <f>COUNTIFS(B:B,B208)</f>
@@ -5175,7 +5263,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="D209" s="1">
         <f>COUNTIFS(B:B,B209)</f>
@@ -5190,7 +5278,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D210" s="1">
         <f>COUNTIFS(B:B,B210)</f>
@@ -5205,7 +5293,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D211" s="1">
         <f>COUNTIFS(B:B,B211)</f>
@@ -5220,7 +5308,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="D212" s="1">
         <f>COUNTIFS(B:B,B212)</f>
@@ -5235,7 +5323,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D213" s="1">
         <f>COUNTIFS(B:B,B213)</f>
@@ -5250,7 +5338,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D214" s="1">
         <f>COUNTIFS(B:B,B214)</f>
@@ -5265,7 +5353,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D215" s="1">
         <f>COUNTIFS(B:B,B215)</f>
@@ -5280,7 +5368,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D216" s="1">
         <f>COUNTIFS(B:B,B216)</f>
@@ -5295,7 +5383,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D217" s="1">
         <f>COUNTIFS(B:B,B217)</f>
@@ -5310,7 +5398,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="D218" s="1">
         <f>COUNTIFS(B:B,B218)</f>
@@ -5325,7 +5413,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="D219" s="1">
         <f>COUNTIFS(B:B,B219)</f>
@@ -5340,7 +5428,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D220" s="1">
         <f>COUNTIFS(B:B,B220)</f>
@@ -5355,7 +5443,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="D221" s="1">
         <f>COUNTIFS(B:B,B221)</f>
@@ -5370,7 +5458,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D222" s="1">
         <f>COUNTIFS(B:B,B222)</f>
@@ -5385,7 +5473,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D223" s="1">
         <f>COUNTIFS(B:B,B223)</f>
@@ -5400,7 +5488,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="D224" s="1">
         <f>COUNTIFS(B:B,B224)</f>
@@ -5415,7 +5503,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D225" s="1">
         <f>COUNTIFS(B:B,B225)</f>
@@ -5430,7 +5518,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D226" s="1">
         <f>COUNTIFS(B:B,B226)</f>
@@ -5445,7 +5533,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="D227" s="1">
         <f>COUNTIFS(B:B,B227)</f>
@@ -5460,7 +5548,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="D228" s="1">
         <f>COUNTIFS(B:B,B228)</f>
@@ -5475,7 +5563,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D229" s="1">
         <f>COUNTIFS(B:B,B229)</f>
@@ -5490,7 +5578,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="D230" s="1">
         <f>COUNTIFS(B:B,B230)</f>
@@ -5505,7 +5593,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="D231" s="1">
         <f>COUNTIFS(B:B,B231)</f>
@@ -5520,7 +5608,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D232" s="1">
         <f>COUNTIFS(B:B,B232)</f>
@@ -5535,7 +5623,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="D233" s="1">
         <f>COUNTIFS(B:B,B233)</f>
@@ -5550,7 +5638,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D234" s="1">
         <f>COUNTIFS(B:B,B234)</f>
@@ -5565,7 +5653,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="D235" s="1">
         <f>COUNTIFS(B:B,B235)</f>
@@ -5580,7 +5668,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D236" s="1">
         <f>COUNTIFS(B:B,B236)</f>
@@ -5595,7 +5683,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D237" s="1">
         <f>COUNTIFS(B:B,B237)</f>
@@ -5610,7 +5698,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D238" s="1">
         <f>COUNTIFS(B:B,B238)</f>
@@ -5625,7 +5713,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D239" s="1">
         <f>COUNTIFS(B:B,B239)</f>
@@ -5640,7 +5728,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="D240" s="1">
         <f>COUNTIFS(B:B,B240)</f>
@@ -5655,7 +5743,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="D241" s="1">
         <f>COUNTIFS(B:B,B241)</f>
@@ -5670,7 +5758,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="D242" s="1">
         <f>COUNTIFS(B:B,B242)</f>
@@ -5685,7 +5773,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D243" s="1">
         <f>COUNTIFS(B:B,B243)</f>
@@ -5700,7 +5788,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="D244" s="1">
         <f>COUNTIFS(B:B,B244)</f>
@@ -5715,7 +5803,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="D245" s="1">
         <f>COUNTIFS(B:B,B245)</f>
@@ -5730,7 +5818,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D246" s="1">
         <f>COUNTIFS(B:B,B246)</f>
@@ -5745,7 +5833,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D247" s="1">
         <f>COUNTIFS(B:B,B247)</f>
@@ -5760,7 +5848,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="D248" s="1">
         <f>COUNTIFS(B:B,B248)</f>
@@ -5775,7 +5863,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="D249" s="1">
         <f>COUNTIFS(B:B,B249)</f>
@@ -5790,7 +5878,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="D250" s="1">
         <f>COUNTIFS(B:B,B250)</f>
@@ -5805,7 +5893,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D251" s="1">
         <f>COUNTIFS(B:B,B251)</f>
@@ -5820,7 +5908,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D252" s="1">
         <f>COUNTIFS(B:B,B252)</f>
@@ -5835,7 +5923,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="D253" s="1">
         <f>COUNTIFS(B:B,B253)</f>
@@ -5850,7 +5938,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D254" s="1">
         <f>COUNTIFS(B:B,B254)</f>
@@ -5865,7 +5953,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="D255" s="1">
         <f>COUNTIFS(B:B,B255)</f>
@@ -5880,7 +5968,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D256" s="1">
         <f>COUNTIFS(B:B,B256)</f>
@@ -5895,7 +5983,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="D257" s="1">
         <f>COUNTIFS(B:B,B257)</f>
@@ -5910,7 +5998,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D258" s="1">
         <f>COUNTIFS(B:B,B258)</f>
@@ -5925,7 +6013,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="D259" s="1">
         <f>COUNTIFS(B:B,B259)</f>
@@ -5940,7 +6028,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="D260" s="1">
         <f>COUNTIFS(B:B,B260)</f>
@@ -5955,7 +6043,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D261" s="1">
         <f>COUNTIFS(B:B,B261)</f>
@@ -5970,7 +6058,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D262" s="1">
         <f>COUNTIFS(B:B,B262)</f>
@@ -5985,7 +6073,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D263" s="1">
         <f>COUNTIFS(B:B,B263)</f>
@@ -6000,7 +6088,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="D264" s="1">
         <f>COUNTIFS(B:B,B264)</f>
@@ -6015,7 +6103,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D265" s="1">
         <f>COUNTIFS(B:B,B265)</f>
@@ -6030,7 +6118,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D266" s="1">
         <f>COUNTIFS(B:B,B266)</f>
@@ -6045,7 +6133,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="D267" s="1">
         <f>COUNTIFS(B:B,B267)</f>
@@ -6060,7 +6148,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="D268" s="1">
         <f>COUNTIFS(B:B,B268)</f>
@@ -6075,7 +6163,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D269" s="1">
         <f>COUNTIFS(B:B,B269)</f>
@@ -6090,7 +6178,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="D270" s="1">
         <f>COUNTIFS(B:B,B270)</f>
@@ -6105,7 +6193,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D271" s="1">
         <f>COUNTIFS(B:B,B271)</f>
@@ -6120,7 +6208,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D272" s="1">
         <f>COUNTIFS(B:B,B272)</f>
@@ -6130,11 +6218,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="273" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D273" s="1">
+        <f>COUNTIFS(B:B,B273)</f>
+        <v>1</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D274" s="1">
+        <f>COUNTIFS(B:B,B274)</f>
+        <v>1</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D275" s="1">
+        <f>COUNTIFS(B:B,B275)</f>
+        <v>1</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D276" s="1">
+        <f>COUNTIFS(B:B,B276)</f>
+        <v>1</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D277" s="1">
+        <f>COUNTIFS(B:B,B277)</f>
+        <v>1</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D278" s="1">
+        <f>COUNTIFS(B:B,B278)</f>
+        <v>1</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E272">
-    <sortCondition ref="C2:C272"/>
-    <sortCondition ref="B2:B272"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E278">
+    <sortCondition ref="C2:C278"/>
+    <sortCondition ref="B2:B278"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB37416-3FD4-418C-B0F4-5B1D3F87B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF540B-6B22-4D90-B713-2F128A8FC1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="287">
   <si>
     <t>num</t>
   </si>
@@ -1030,6 +1030,10 @@
   </si>
   <si>
     <t>LCID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCU</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1689,74 +1693,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1776,7 +1712,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2065,11 +2001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A278" sqref="A278"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2110,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <f>COUNTIFS(B:B,B2)</f>
+        <f t="shared" ref="D2:D65" si="0">COUNTIFS(B:B,B2)</f>
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -2128,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>COUNTIFS(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -2146,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <f>COUNTIFS(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -2164,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>COUNTIFS(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="1">
@@ -2182,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f>COUNTIFS(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -2200,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>COUNTIFS(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="1">
@@ -2218,7 +2154,7 @@
         <v>226</v>
       </c>
       <c r="D8" s="1">
-        <f>COUNTIFS(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="1">
@@ -2236,7 +2172,7 @@
         <v>225</v>
       </c>
       <c r="D9" s="1">
-        <f>COUNTIFS(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="1">
@@ -2254,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="D10" s="1">
-        <f>COUNTIFS(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -2272,7 +2208,7 @@
         <v>225</v>
       </c>
       <c r="D11" s="1">
-        <f>COUNTIFS(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="1">
@@ -2290,7 +2226,7 @@
         <v>225</v>
       </c>
       <c r="D12" s="1">
-        <f>COUNTIFS(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="1">
@@ -2308,7 +2244,7 @@
         <v>225</v>
       </c>
       <c r="D13" s="1">
-        <f>COUNTIFS(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -2326,7 +2262,7 @@
         <v>190</v>
       </c>
       <c r="D14" s="1">
-        <f>COUNTIFS(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="1">
@@ -2344,7 +2280,7 @@
         <v>190</v>
       </c>
       <c r="D15" s="1">
-        <f>COUNTIFS(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="1">
@@ -2362,7 +2298,7 @@
         <v>190</v>
       </c>
       <c r="D16" s="1">
-        <f>COUNTIFS(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="1">
@@ -2380,7 +2316,7 @@
         <v>190</v>
       </c>
       <c r="D17" s="1">
-        <f>COUNTIFS(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="1">
@@ -2398,7 +2334,7 @@
         <v>190</v>
       </c>
       <c r="D18" s="1">
-        <f>COUNTIFS(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="1">
@@ -2416,7 +2352,7 @@
         <v>190</v>
       </c>
       <c r="D19" s="1">
-        <f>COUNTIFS(B:B,B19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="1">
@@ -2431,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1">
-        <f>COUNTIFS(B:B,B20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="1">
@@ -2446,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1">
-        <f>COUNTIFS(B:B,B21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="1">
@@ -2461,7 +2397,7 @@
         <v>284</v>
       </c>
       <c r="D22" s="1">
-        <f>COUNTIFS(B:B,B22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" s="1">
@@ -2476,7 +2412,7 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <f>COUNTIFS(B:B,B23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" s="1">
@@ -2491,7 +2427,7 @@
         <v>234</v>
       </c>
       <c r="D24" s="1">
-        <f>COUNTIFS(B:B,B24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24" s="1">
@@ -2506,7 +2442,7 @@
         <v>251</v>
       </c>
       <c r="D25" s="1">
-        <f>COUNTIFS(B:B,B25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" s="1">
@@ -2521,7 +2457,7 @@
         <v>283</v>
       </c>
       <c r="D26" s="1">
-        <f>COUNTIFS(B:B,B26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26" s="1">
@@ -2536,7 +2472,7 @@
         <v>204</v>
       </c>
       <c r="D27" s="1">
-        <f>COUNTIFS(B:B,B27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27" s="1">
@@ -2551,7 +2487,7 @@
         <v>276</v>
       </c>
       <c r="D28" s="1">
-        <f>COUNTIFS(B:B,B28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28" s="1">
@@ -2566,7 +2502,7 @@
         <v>262</v>
       </c>
       <c r="D29" s="1">
-        <f>COUNTIFS(B:B,B29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29" s="1">
@@ -2581,7 +2517,7 @@
         <v>255</v>
       </c>
       <c r="D30" s="1">
-        <f>COUNTIFS(B:B,B30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" s="1">
@@ -2596,7 +2532,7 @@
         <v>258</v>
       </c>
       <c r="D31" s="1">
-        <f>COUNTIFS(B:B,B31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31" s="1">
@@ -2611,7 +2547,7 @@
         <v>163</v>
       </c>
       <c r="D32" s="1">
-        <f>COUNTIFS(B:B,B32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="1">
@@ -2626,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="1">
-        <f>COUNTIFS(B:B,B33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E33" s="1">
@@ -2641,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="1">
-        <f>COUNTIFS(B:B,B34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E34" s="1">
@@ -2656,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="1">
-        <f>COUNTIFS(B:B,B35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E35" s="1">
@@ -2671,7 +2607,7 @@
         <v>220</v>
       </c>
       <c r="D36" s="1">
-        <f>COUNTIFS(B:B,B36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E36" s="1">
@@ -2686,7 +2622,7 @@
         <v>240</v>
       </c>
       <c r="D37" s="1">
-        <f>COUNTIFS(B:B,B37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E37" s="1">
@@ -2701,7 +2637,7 @@
         <v>156</v>
       </c>
       <c r="D38" s="1">
-        <f>COUNTIFS(B:B,B38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E38" s="1">
@@ -2716,7 +2652,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="1">
-        <f>COUNTIFS(B:B,B39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E39" s="1">
@@ -2731,7 +2667,7 @@
         <v>154</v>
       </c>
       <c r="D40" s="1">
-        <f>COUNTIFS(B:B,B40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E40" s="1">
@@ -2746,7 +2682,7 @@
         <v>155</v>
       </c>
       <c r="D41" s="1">
-        <f>COUNTIFS(B:B,B41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E41" s="1">
@@ -2761,7 +2697,7 @@
         <v>280</v>
       </c>
       <c r="D42" s="1">
-        <f>COUNTIFS(B:B,B42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42" s="1">
@@ -2776,7 +2712,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="1">
-        <f>COUNTIFS(B:B,B43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E43" s="1">
@@ -2791,7 +2727,7 @@
         <v>188</v>
       </c>
       <c r="D44" s="1">
-        <f>COUNTIFS(B:B,B44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44" s="1">
@@ -2806,7 +2742,7 @@
         <v>150</v>
       </c>
       <c r="D45" s="1">
-        <f>COUNTIFS(B:B,B45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45" s="1">
@@ -2821,7 +2757,7 @@
         <v>216</v>
       </c>
       <c r="D46" s="1">
-        <f>COUNTIFS(B:B,B46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E46" s="1">
@@ -2836,7 +2772,7 @@
         <v>232</v>
       </c>
       <c r="D47" s="1">
-        <f>COUNTIFS(B:B,B47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E47" s="1">
@@ -2851,7 +2787,7 @@
         <v>272</v>
       </c>
       <c r="D48" s="1">
-        <f>COUNTIFS(B:B,B48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E48" s="1">
@@ -2866,7 +2802,7 @@
         <v>189</v>
       </c>
       <c r="D49" s="1">
-        <f>COUNTIFS(B:B,B49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E49" s="1">
@@ -2881,7 +2817,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="1">
-        <f>COUNTIFS(B:B,B50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E50" s="1">
@@ -2896,7 +2832,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1">
-        <f>COUNTIFS(B:B,B51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E51" s="1">
@@ -2911,7 +2847,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="1">
-        <f>COUNTIFS(B:B,B52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E52" s="1">
@@ -2926,7 +2862,7 @@
         <v>195</v>
       </c>
       <c r="D53" s="1">
-        <f>COUNTIFS(B:B,B53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E53" s="1">
@@ -2941,7 +2877,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="1">
-        <f>COUNTIFS(B:B,B54)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E54" s="1">
@@ -2956,7 +2892,7 @@
         <v>212</v>
       </c>
       <c r="D55" s="1">
-        <f>COUNTIFS(B:B,B55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E55" s="1">
@@ -2971,7 +2907,7 @@
         <v>230</v>
       </c>
       <c r="D56" s="1">
-        <f>COUNTIFS(B:B,B56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E56" s="1">
@@ -2986,7 +2922,7 @@
         <v>205</v>
       </c>
       <c r="D57" s="1">
-        <f>COUNTIFS(B:B,B57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E57" s="1">
@@ -3001,7 +2937,7 @@
         <v>23</v>
       </c>
       <c r="D58" s="1">
-        <f>COUNTIFS(B:B,B58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E58" s="1">
@@ -3016,7 +2952,7 @@
         <v>108</v>
       </c>
       <c r="D59" s="1">
-        <f>COUNTIFS(B:B,B59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E59" s="1">
@@ -3031,7 +2967,7 @@
         <v>106</v>
       </c>
       <c r="D60" s="1">
-        <f>COUNTIFS(B:B,B60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E60" s="1">
@@ -3046,7 +2982,7 @@
         <v>274</v>
       </c>
       <c r="D61" s="1">
-        <f>COUNTIFS(B:B,B61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E61" s="1">
@@ -3061,7 +2997,7 @@
         <v>142</v>
       </c>
       <c r="D62" s="1">
-        <f>COUNTIFS(B:B,B62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62" s="1">
@@ -3076,7 +3012,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="1">
-        <f>COUNTIFS(B:B,B63)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E63" s="1">
@@ -3091,7 +3027,7 @@
         <v>167</v>
       </c>
       <c r="D64" s="1">
-        <f>COUNTIFS(B:B,B64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E64" s="1">
@@ -3106,7 +3042,7 @@
         <v>24</v>
       </c>
       <c r="D65" s="1">
-        <f>COUNTIFS(B:B,B65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E65" s="1">
@@ -3121,7 +3057,7 @@
         <v>197</v>
       </c>
       <c r="D66" s="1">
-        <f>COUNTIFS(B:B,B66)</f>
+        <f t="shared" ref="D66:D129" si="1">COUNTIFS(B:B,B66)</f>
         <v>1</v>
       </c>
       <c r="E66" s="1">
@@ -3136,7 +3072,7 @@
         <v>125</v>
       </c>
       <c r="D67" s="1">
-        <f>COUNTIFS(B:B,B67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E67" s="1">
@@ -3151,7 +3087,7 @@
         <v>183</v>
       </c>
       <c r="D68" s="1">
-        <f>COUNTIFS(B:B,B68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E68" s="1">
@@ -3166,7 +3102,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="1">
-        <f>COUNTIFS(B:B,B69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E69" s="1">
@@ -3181,7 +3117,7 @@
         <v>112</v>
       </c>
       <c r="D70" s="1">
-        <f>COUNTIFS(B:B,B70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E70" s="1">
@@ -3196,7 +3132,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="1">
-        <f>COUNTIFS(B:B,B71)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E71" s="1">
@@ -3211,7 +3147,7 @@
         <v>27</v>
       </c>
       <c r="D72" s="1">
-        <f>COUNTIFS(B:B,B72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E72" s="1">
@@ -3226,7 +3162,7 @@
         <v>178</v>
       </c>
       <c r="D73" s="1">
-        <f>COUNTIFS(B:B,B73)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E73" s="1">
@@ -3241,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="D74" s="1">
-        <f>COUNTIFS(B:B,B74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E74" s="1">
@@ -3256,7 +3192,7 @@
         <v>153</v>
       </c>
       <c r="D75" s="1">
-        <f>COUNTIFS(B:B,B75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E75" s="1">
@@ -3271,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="D76" s="1">
-        <f>COUNTIFS(B:B,B76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E76" s="1">
@@ -3286,7 +3222,7 @@
         <v>246</v>
       </c>
       <c r="D77" s="1">
-        <f>COUNTIFS(B:B,B77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77" s="1">
@@ -3301,7 +3237,7 @@
         <v>244</v>
       </c>
       <c r="D78" s="1">
-        <f>COUNTIFS(B:B,B78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E78" s="1">
@@ -3316,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="D79" s="1">
-        <f>COUNTIFS(B:B,B79)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E79" s="1">
@@ -3331,7 +3267,7 @@
         <v>175</v>
       </c>
       <c r="D80" s="1">
-        <f>COUNTIFS(B:B,B80)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E80" s="1">
@@ -3346,7 +3282,7 @@
         <v>264</v>
       </c>
       <c r="D81" s="1">
-        <f>COUNTIFS(B:B,B81)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E81" s="1">
@@ -3361,7 +3297,7 @@
         <v>256</v>
       </c>
       <c r="D82" s="1">
-        <f>COUNTIFS(B:B,B82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E82" s="1">
@@ -3376,7 +3312,7 @@
         <v>209</v>
       </c>
       <c r="D83" s="1">
-        <f>COUNTIFS(B:B,B83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E83" s="1">
@@ -3391,7 +3327,7 @@
         <v>250</v>
       </c>
       <c r="D84" s="1">
-        <f>COUNTIFS(B:B,B84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E84" s="1">
@@ -3406,7 +3342,7 @@
         <v>238</v>
       </c>
       <c r="D85" s="1">
-        <f>COUNTIFS(B:B,B85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E85" s="1">
@@ -3421,7 +3357,7 @@
         <v>269</v>
       </c>
       <c r="D86" s="1">
-        <f>COUNTIFS(B:B,B86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E86" s="1">
@@ -3436,7 +3372,7 @@
         <v>137</v>
       </c>
       <c r="D87" s="1">
-        <f>COUNTIFS(B:B,B87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E87" s="1">
@@ -3451,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="D88" s="1">
-        <f>COUNTIFS(B:B,B88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E88" s="1">
@@ -3466,7 +3402,7 @@
         <v>32</v>
       </c>
       <c r="D89" s="1">
-        <f>COUNTIFS(B:B,B89)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E89" s="1">
@@ -3481,7 +3417,7 @@
         <v>268</v>
       </c>
       <c r="D90" s="1">
-        <f>COUNTIFS(B:B,B90)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E90" s="1">
@@ -3496,7 +3432,7 @@
         <v>266</v>
       </c>
       <c r="D91" s="1">
-        <f>COUNTIFS(B:B,B91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E91" s="1">
@@ -3511,7 +3447,7 @@
         <v>121</v>
       </c>
       <c r="D92" s="1">
-        <f>COUNTIFS(B:B,B92)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E92" s="1">
@@ -3526,7 +3462,7 @@
         <v>177</v>
       </c>
       <c r="D93" s="1">
-        <f>COUNTIFS(B:B,B93)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E93" s="1">
@@ -3541,7 +3477,7 @@
         <v>221</v>
       </c>
       <c r="D94" s="1">
-        <f>COUNTIFS(B:B,B94)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E94" s="1">
@@ -3556,7 +3492,7 @@
         <v>252</v>
       </c>
       <c r="D95" s="1">
-        <f>COUNTIFS(B:B,B95)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95" s="1">
@@ -3571,7 +3507,7 @@
         <v>152</v>
       </c>
       <c r="D96" s="1">
-        <f>COUNTIFS(B:B,B96)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E96" s="1">
@@ -3586,7 +3522,7 @@
         <v>33</v>
       </c>
       <c r="D97" s="1">
-        <f>COUNTIFS(B:B,B97)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E97" s="1">
@@ -3601,7 +3537,7 @@
         <v>34</v>
       </c>
       <c r="D98" s="1">
-        <f>COUNTIFS(B:B,B98)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E98" s="1">
@@ -3616,7 +3552,7 @@
         <v>282</v>
       </c>
       <c r="D99" s="1">
-        <f>COUNTIFS(B:B,B99)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E99" s="1">
@@ -3631,7 +3567,7 @@
         <v>243</v>
       </c>
       <c r="D100" s="1">
-        <f>COUNTIFS(B:B,B100)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E100" s="1">
@@ -3646,7 +3582,7 @@
         <v>35</v>
       </c>
       <c r="D101" s="1">
-        <f>COUNTIFS(B:B,B101)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E101" s="1">
@@ -3661,7 +3597,7 @@
         <v>36</v>
       </c>
       <c r="D102" s="1">
-        <f>COUNTIFS(B:B,B102)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E102" s="1">
@@ -3676,7 +3612,7 @@
         <v>37</v>
       </c>
       <c r="D103" s="1">
-        <f>COUNTIFS(B:B,B103)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E103" s="1">
@@ -3691,7 +3627,7 @@
         <v>124</v>
       </c>
       <c r="D104" s="1">
-        <f>COUNTIFS(B:B,B104)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E104" s="1">
@@ -3706,7 +3642,7 @@
         <v>38</v>
       </c>
       <c r="D105" s="1">
-        <f>COUNTIFS(B:B,B105)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E105" s="1">
@@ -3721,7 +3657,7 @@
         <v>261</v>
       </c>
       <c r="D106" s="1">
-        <f>COUNTIFS(B:B,B106)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E106" s="1">
@@ -3736,7 +3672,7 @@
         <v>228</v>
       </c>
       <c r="D107" s="1">
-        <f>COUNTIFS(B:B,B107)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E107" s="1">
@@ -3751,7 +3687,7 @@
         <v>254</v>
       </c>
       <c r="D108" s="1">
-        <f>COUNTIFS(B:B,B108)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E108" s="1">
@@ -3766,7 +3702,7 @@
         <v>39</v>
       </c>
       <c r="D109" s="1">
-        <f>COUNTIFS(B:B,B109)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109" s="1">
@@ -3781,7 +3717,7 @@
         <v>138</v>
       </c>
       <c r="D110" s="1">
-        <f>COUNTIFS(B:B,B110)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E110" s="1">
@@ -3796,7 +3732,7 @@
         <v>40</v>
       </c>
       <c r="D111" s="1">
-        <f>COUNTIFS(B:B,B111)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E111" s="1">
@@ -3811,7 +3747,7 @@
         <v>41</v>
       </c>
       <c r="D112" s="1">
-        <f>COUNTIFS(B:B,B112)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E112" s="1">
@@ -3826,7 +3762,7 @@
         <v>198</v>
       </c>
       <c r="D113" s="1">
-        <f>COUNTIFS(B:B,B113)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E113" s="1">
@@ -3841,7 +3777,7 @@
         <v>42</v>
       </c>
       <c r="D114" s="1">
-        <f>COUNTIFS(B:B,B114)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E114" s="1">
@@ -3856,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="D115" s="1">
-        <f>COUNTIFS(B:B,B115)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E115" s="1">
@@ -3871,7 +3807,7 @@
         <v>119</v>
       </c>
       <c r="D116" s="1">
-        <f>COUNTIFS(B:B,B116)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E116" s="1">
@@ -3886,7 +3822,7 @@
         <v>236</v>
       </c>
       <c r="D117" s="1">
-        <f>COUNTIFS(B:B,B117)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E117" s="1">
@@ -3901,7 +3837,7 @@
         <v>44</v>
       </c>
       <c r="D118" s="1">
-        <f>COUNTIFS(B:B,B118)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E118" s="1">
@@ -3916,7 +3852,7 @@
         <v>279</v>
       </c>
       <c r="D119" s="1">
-        <f>COUNTIFS(B:B,B119)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E119" s="1">
@@ -3931,7 +3867,7 @@
         <v>162</v>
       </c>
       <c r="D120" s="1">
-        <f>COUNTIFS(B:B,B120)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E120" s="1">
@@ -3946,7 +3882,7 @@
         <v>45</v>
       </c>
       <c r="D121" s="1">
-        <f>COUNTIFS(B:B,B121)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E121" s="1">
@@ -3961,7 +3897,7 @@
         <v>46</v>
       </c>
       <c r="D122" s="1">
-        <f>COUNTIFS(B:B,B122)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E122" s="1">
@@ -3976,7 +3912,7 @@
         <v>181</v>
       </c>
       <c r="D123" s="1">
-        <f>COUNTIFS(B:B,B123)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E123" s="1">
@@ -3991,7 +3927,7 @@
         <v>133</v>
       </c>
       <c r="D124" s="1">
-        <f>COUNTIFS(B:B,B124)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E124" s="1">
@@ -4006,7 +3942,7 @@
         <v>186</v>
       </c>
       <c r="D125" s="1">
-        <f>COUNTIFS(B:B,B125)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E125" s="1">
@@ -4021,7 +3957,7 @@
         <v>218</v>
       </c>
       <c r="D126" s="1">
-        <f>COUNTIFS(B:B,B126)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E126" s="1">
@@ -4036,7 +3972,7 @@
         <v>170</v>
       </c>
       <c r="D127" s="1">
-        <f>COUNTIFS(B:B,B127)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E127" s="1">
@@ -4051,7 +3987,7 @@
         <v>237</v>
       </c>
       <c r="D128" s="1">
-        <f>COUNTIFS(B:B,B128)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E128" s="1">
@@ -4066,7 +4002,7 @@
         <v>182</v>
       </c>
       <c r="D129" s="1">
-        <f>COUNTIFS(B:B,B129)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E129" s="1">
@@ -4081,7 +4017,7 @@
         <v>165</v>
       </c>
       <c r="D130" s="1">
-        <f>COUNTIFS(B:B,B130)</f>
+        <f t="shared" ref="D130:D193" si="2">COUNTIFS(B:B,B130)</f>
         <v>1</v>
       </c>
       <c r="E130" s="1">
@@ -4096,7 +4032,7 @@
         <v>47</v>
       </c>
       <c r="D131" s="1">
-        <f>COUNTIFS(B:B,B131)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E131" s="1">
@@ -4111,7 +4047,7 @@
         <v>278</v>
       </c>
       <c r="D132" s="1">
-        <f>COUNTIFS(B:B,B132)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E132" s="1">
@@ -4126,7 +4062,7 @@
         <v>239</v>
       </c>
       <c r="D133" s="1">
-        <f>COUNTIFS(B:B,B133)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E133" s="1">
@@ -4141,7 +4077,7 @@
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <f>COUNTIFS(B:B,B134)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E134" s="1">
@@ -4156,7 +4092,7 @@
         <v>48</v>
       </c>
       <c r="D135" s="1">
-        <f>COUNTIFS(B:B,B135)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E135" s="1">
@@ -4171,7 +4107,7 @@
         <v>143</v>
       </c>
       <c r="D136" s="1">
-        <f>COUNTIFS(B:B,B136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E136" s="1">
@@ -4186,7 +4122,7 @@
         <v>49</v>
       </c>
       <c r="D137" s="1">
-        <f>COUNTIFS(B:B,B137)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E137" s="1">
@@ -4201,7 +4137,7 @@
         <v>50</v>
       </c>
       <c r="D138" s="1">
-        <f>COUNTIFS(B:B,B138)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E138" s="1">
@@ -4216,7 +4152,7 @@
         <v>158</v>
       </c>
       <c r="D139" s="1">
-        <f>COUNTIFS(B:B,B139)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E139" s="1">
@@ -4231,7 +4167,7 @@
         <v>173</v>
       </c>
       <c r="D140" s="1">
-        <f>COUNTIFS(B:B,B140)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E140" s="1">
@@ -4246,7 +4182,7 @@
         <v>179</v>
       </c>
       <c r="D141" s="1">
-        <f>COUNTIFS(B:B,B141)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E141" s="1">
@@ -4261,7 +4197,7 @@
         <v>148</v>
       </c>
       <c r="D142" s="1">
-        <f>COUNTIFS(B:B,B142)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E142" s="1">
@@ -4276,7 +4212,7 @@
         <v>211</v>
       </c>
       <c r="D143" s="1">
-        <f>COUNTIFS(B:B,B143)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E143" s="1">
@@ -4291,7 +4227,7 @@
         <v>285</v>
       </c>
       <c r="D144" s="1">
-        <f>COUNTIFS(B:B,B144)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E144" s="1">
@@ -4306,7 +4242,7 @@
         <v>249</v>
       </c>
       <c r="D145" s="1">
-        <f>COUNTIFS(B:B,B145)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E145" s="1">
@@ -4321,7 +4257,7 @@
         <v>51</v>
       </c>
       <c r="D146" s="1">
-        <f>COUNTIFS(B:B,B146)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E146" s="1">
@@ -4336,7 +4272,7 @@
         <v>257</v>
       </c>
       <c r="D147" s="1">
-        <f>COUNTIFS(B:B,B147)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E147" s="1">
@@ -4351,7 +4287,7 @@
         <v>144</v>
       </c>
       <c r="D148" s="1">
-        <f>COUNTIFS(B:B,B148)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E148" s="1">
@@ -4366,7 +4302,7 @@
         <v>199</v>
       </c>
       <c r="D149" s="1">
-        <f>COUNTIFS(B:B,B149)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E149" s="1">
@@ -4381,7 +4317,7 @@
         <v>208</v>
       </c>
       <c r="D150" s="1">
-        <f>COUNTIFS(B:B,B150)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E150" s="1">
@@ -4396,7 +4332,7 @@
         <v>248</v>
       </c>
       <c r="D151" s="1">
-        <f>COUNTIFS(B:B,B151)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E151" s="1">
@@ -4411,7 +4347,7 @@
         <v>270</v>
       </c>
       <c r="D152" s="1">
-        <f>COUNTIFS(B:B,B152)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E152" s="1">
@@ -4426,7 +4362,7 @@
         <v>187</v>
       </c>
       <c r="D153" s="1">
-        <f>COUNTIFS(B:B,B153)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E153" s="1">
@@ -4441,7 +4377,7 @@
         <v>52</v>
       </c>
       <c r="D154" s="1">
-        <f>COUNTIFS(B:B,B154)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E154" s="1">
@@ -4456,7 +4392,7 @@
         <v>116</v>
       </c>
       <c r="D155" s="1">
-        <f>COUNTIFS(B:B,B155)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E155" s="1">
@@ -4471,7 +4407,7 @@
         <v>53</v>
       </c>
       <c r="D156" s="1">
-        <f>COUNTIFS(B:B,B156)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E156" s="1">
@@ -4486,7 +4422,7 @@
         <v>54</v>
       </c>
       <c r="D157" s="1">
-        <f>COUNTIFS(B:B,B157)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E157" s="1">
@@ -4501,7 +4437,7 @@
         <v>113</v>
       </c>
       <c r="D158" s="1">
-        <f>COUNTIFS(B:B,B158)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E158" s="1">
@@ -4516,7 +4452,7 @@
         <v>55</v>
       </c>
       <c r="D159" s="1">
-        <f>COUNTIFS(B:B,B159)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E159" s="1">
@@ -4531,7 +4467,7 @@
         <v>247</v>
       </c>
       <c r="D160" s="1">
-        <f>COUNTIFS(B:B,B160)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E160" s="1">
@@ -4546,7 +4482,7 @@
         <v>146</v>
       </c>
       <c r="D161" s="1">
-        <f>COUNTIFS(B:B,B161)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E161" s="1">
@@ -4561,7 +4497,7 @@
         <v>56</v>
       </c>
       <c r="D162" s="1">
-        <f>COUNTIFS(B:B,B162)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E162" s="1">
@@ -4576,7 +4512,7 @@
         <v>57</v>
       </c>
       <c r="D163" s="1">
-        <f>COUNTIFS(B:B,B163)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E163" s="1">
@@ -4591,7 +4527,7 @@
         <v>271</v>
       </c>
       <c r="D164" s="1">
-        <f>COUNTIFS(B:B,B164)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E164" s="1">
@@ -4606,7 +4542,7 @@
         <v>111</v>
       </c>
       <c r="D165" s="1">
-        <f>COUNTIFS(B:B,B165)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E165" s="1">
@@ -4621,7 +4557,7 @@
         <v>157</v>
       </c>
       <c r="D166" s="1">
-        <f>COUNTIFS(B:B,B166)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E166" s="1">
@@ -4636,7 +4572,7 @@
         <v>224</v>
       </c>
       <c r="D167" s="1">
-        <f>COUNTIFS(B:B,B167)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E167" s="1">
@@ -4651,7 +4587,7 @@
         <v>58</v>
       </c>
       <c r="D168" s="1">
-        <f>COUNTIFS(B:B,B168)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E168" s="1">
@@ -4666,7 +4602,7 @@
         <v>59</v>
       </c>
       <c r="D169" s="1">
-        <f>COUNTIFS(B:B,B169)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E169" s="1">
@@ -4681,7 +4617,7 @@
         <v>281</v>
       </c>
       <c r="D170" s="1">
-        <f>COUNTIFS(B:B,B170)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E170" s="1">
@@ -4696,7 +4632,7 @@
         <v>140</v>
       </c>
       <c r="D171" s="1">
-        <f>COUNTIFS(B:B,B171)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E171" s="1">
@@ -4711,7 +4647,7 @@
         <v>60</v>
       </c>
       <c r="D172" s="1">
-        <f>COUNTIFS(B:B,B172)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E172" s="1">
@@ -4726,7 +4662,7 @@
         <v>61</v>
       </c>
       <c r="D173" s="1">
-        <f>COUNTIFS(B:B,B173)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E173" s="1">
@@ -4741,7 +4677,7 @@
         <v>164</v>
       </c>
       <c r="D174" s="1">
-        <f>COUNTIFS(B:B,B174)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E174" s="1">
@@ -4756,7 +4692,7 @@
         <v>145</v>
       </c>
       <c r="D175" s="1">
-        <f>COUNTIFS(B:B,B175)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E175" s="1">
@@ -4771,7 +4707,7 @@
         <v>62</v>
       </c>
       <c r="D176" s="1">
-        <f>COUNTIFS(B:B,B176)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E176" s="1">
@@ -4786,7 +4722,7 @@
         <v>63</v>
       </c>
       <c r="D177" s="1">
-        <f>COUNTIFS(B:B,B177)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E177" s="1">
@@ -4801,7 +4737,7 @@
         <v>64</v>
       </c>
       <c r="D178" s="1">
-        <f>COUNTIFS(B:B,B178)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E178" s="1">
@@ -4816,7 +4752,7 @@
         <v>126</v>
       </c>
       <c r="D179" s="1">
-        <f>COUNTIFS(B:B,B179)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E179" s="1">
@@ -4831,7 +4767,7 @@
         <v>210</v>
       </c>
       <c r="D180" s="1">
-        <f>COUNTIFS(B:B,B180)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E180" s="1">
@@ -4846,7 +4782,7 @@
         <v>242</v>
       </c>
       <c r="D181" s="1">
-        <f>COUNTIFS(B:B,B181)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E181" s="1">
@@ -4861,7 +4797,7 @@
         <v>65</v>
       </c>
       <c r="D182" s="1">
-        <f>COUNTIFS(B:B,B182)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182" s="1">
@@ -4876,7 +4812,7 @@
         <v>260</v>
       </c>
       <c r="D183" s="1">
-        <f>COUNTIFS(B:B,B183)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183" s="1">
@@ -4891,7 +4827,7 @@
         <v>78</v>
       </c>
       <c r="D184" s="1">
-        <f>COUNTIFS(B:B,B184)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E184" s="1">
@@ -4906,7 +4842,7 @@
         <v>171</v>
       </c>
       <c r="D185" s="1">
-        <f>COUNTIFS(B:B,B185)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E185" s="1">
@@ -4921,7 +4857,7 @@
         <v>245</v>
       </c>
       <c r="D186" s="1">
-        <f>COUNTIFS(B:B,B186)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E186" s="1">
@@ -4936,7 +4872,7 @@
         <v>107</v>
       </c>
       <c r="D187" s="1">
-        <f>COUNTIFS(B:B,B187)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E187" s="1">
@@ -4951,7 +4887,7 @@
         <v>180</v>
       </c>
       <c r="D188" s="1">
-        <f>COUNTIFS(B:B,B188)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E188" s="1">
@@ -4966,7 +4902,7 @@
         <v>66</v>
       </c>
       <c r="D189" s="1">
-        <f>COUNTIFS(B:B,B189)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E189" s="1">
@@ -4981,7 +4917,7 @@
         <v>67</v>
       </c>
       <c r="D190" s="1">
-        <f>COUNTIFS(B:B,B190)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E190" s="1">
@@ -4996,7 +4932,7 @@
         <v>206</v>
       </c>
       <c r="D191" s="1">
-        <f>COUNTIFS(B:B,B191)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E191" s="1">
@@ -5011,7 +4947,7 @@
         <v>202</v>
       </c>
       <c r="D192" s="1">
-        <f>COUNTIFS(B:B,B192)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E192" s="1">
@@ -5026,7 +4962,7 @@
         <v>277</v>
       </c>
       <c r="D193" s="1">
-        <f>COUNTIFS(B:B,B193)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E193" s="1">
@@ -5041,7 +4977,7 @@
         <v>68</v>
       </c>
       <c r="D194" s="1">
-        <f>COUNTIFS(B:B,B194)</f>
+        <f t="shared" ref="D194:D257" si="3">COUNTIFS(B:B,B194)</f>
         <v>1</v>
       </c>
       <c r="E194" s="1">
@@ -5056,7 +4992,7 @@
         <v>69</v>
       </c>
       <c r="D195" s="1">
-        <f>COUNTIFS(B:B,B195)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E195" s="1">
@@ -5071,7 +5007,7 @@
         <v>70</v>
       </c>
       <c r="D196" s="1">
-        <f>COUNTIFS(B:B,B196)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E196" s="1">
@@ -5086,7 +5022,7 @@
         <v>169</v>
       </c>
       <c r="D197" s="1">
-        <f>COUNTIFS(B:B,B197)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E197" s="1">
@@ -5101,7 +5037,7 @@
         <v>122</v>
       </c>
       <c r="D198" s="1">
-        <f>COUNTIFS(B:B,B198)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E198" s="1">
@@ -5116,7 +5052,7 @@
         <v>263</v>
       </c>
       <c r="D199" s="1">
-        <f>COUNTIFS(B:B,B199)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E199" s="1">
@@ -5131,7 +5067,7 @@
         <v>71</v>
       </c>
       <c r="D200" s="1">
-        <f>COUNTIFS(B:B,B200)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E200" s="1">
@@ -5146,7 +5082,7 @@
         <v>72</v>
       </c>
       <c r="D201" s="1">
-        <f>COUNTIFS(B:B,B201)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E201" s="1">
@@ -5161,7 +5097,7 @@
         <v>73</v>
       </c>
       <c r="D202" s="1">
-        <f>COUNTIFS(B:B,B202)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E202" s="1">
@@ -5176,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="D203" s="1">
-        <f>COUNTIFS(B:B,B203)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E203" s="1">
@@ -5191,7 +5127,7 @@
         <v>75</v>
       </c>
       <c r="D204" s="1">
-        <f>COUNTIFS(B:B,B204)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E204" s="1">
@@ -5206,7 +5142,7 @@
         <v>259</v>
       </c>
       <c r="D205" s="1">
-        <f>COUNTIFS(B:B,B205)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E205" s="1">
@@ -5221,7 +5157,7 @@
         <v>141</v>
       </c>
       <c r="D206" s="1">
-        <f>COUNTIFS(B:B,B206)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E206" s="1">
@@ -5236,7 +5172,7 @@
         <v>76</v>
       </c>
       <c r="D207" s="1">
-        <f>COUNTIFS(B:B,B207)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E207" s="1">
@@ -5251,7 +5187,7 @@
         <v>265</v>
       </c>
       <c r="D208" s="1">
-        <f>COUNTIFS(B:B,B208)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E208" s="1">
@@ -5266,7 +5202,7 @@
         <v>223</v>
       </c>
       <c r="D209" s="1">
-        <f>COUNTIFS(B:B,B209)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E209" s="1">
@@ -5281,7 +5217,7 @@
         <v>136</v>
       </c>
       <c r="D210" s="1">
-        <f>COUNTIFS(B:B,B210)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E210" s="1">
@@ -5296,7 +5232,7 @@
         <v>77</v>
       </c>
       <c r="D211" s="1">
-        <f>COUNTIFS(B:B,B211)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E211" s="1">
@@ -5311,7 +5247,7 @@
         <v>134</v>
       </c>
       <c r="D212" s="1">
-        <f>COUNTIFS(B:B,B212)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E212" s="1">
@@ -5326,7 +5262,7 @@
         <v>172</v>
       </c>
       <c r="D213" s="1">
-        <f>COUNTIFS(B:B,B213)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E213" s="1">
@@ -5341,7 +5277,7 @@
         <v>79</v>
       </c>
       <c r="D214" s="1">
-        <f>COUNTIFS(B:B,B214)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E214" s="1">
@@ -5356,7 +5292,7 @@
         <v>147</v>
       </c>
       <c r="D215" s="1">
-        <f>COUNTIFS(B:B,B215)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E215" s="1">
@@ -5371,7 +5307,7 @@
         <v>80</v>
       </c>
       <c r="D216" s="1">
-        <f>COUNTIFS(B:B,B216)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E216" s="1">
@@ -5386,7 +5322,7 @@
         <v>117</v>
       </c>
       <c r="D217" s="1">
-        <f>COUNTIFS(B:B,B217)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E217" s="1">
@@ -5401,7 +5337,7 @@
         <v>200</v>
       </c>
       <c r="D218" s="1">
-        <f>COUNTIFS(B:B,B218)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E218" s="1">
@@ -5416,7 +5352,7 @@
         <v>81</v>
       </c>
       <c r="D219" s="1">
-        <f>COUNTIFS(B:B,B219)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E219" s="1">
@@ -5431,7 +5367,7 @@
         <v>82</v>
       </c>
       <c r="D220" s="1">
-        <f>COUNTIFS(B:B,B220)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E220" s="1">
@@ -5446,7 +5382,7 @@
         <v>83</v>
       </c>
       <c r="D221" s="1">
-        <f>COUNTIFS(B:B,B221)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E221" s="1">
@@ -5461,7 +5397,7 @@
         <v>85</v>
       </c>
       <c r="D222" s="1">
-        <f>COUNTIFS(B:B,B222)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E222" s="1">
@@ -5476,7 +5412,7 @@
         <v>151</v>
       </c>
       <c r="D223" s="1">
-        <f>COUNTIFS(B:B,B223)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E223" s="1">
@@ -5491,7 +5427,7 @@
         <v>123</v>
       </c>
       <c r="D224" s="1">
-        <f>COUNTIFS(B:B,B224)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E224" s="1">
@@ -5506,7 +5442,7 @@
         <v>233</v>
       </c>
       <c r="D225" s="1">
-        <f>COUNTIFS(B:B,B225)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E225" s="1">
@@ -5521,7 +5457,7 @@
         <v>219</v>
       </c>
       <c r="D226" s="1">
-        <f>COUNTIFS(B:B,B226)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E226" s="1">
@@ -5536,7 +5472,7 @@
         <v>267</v>
       </c>
       <c r="D227" s="1">
-        <f>COUNTIFS(B:B,B227)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E227" s="1">
@@ -5551,7 +5487,7 @@
         <v>86</v>
       </c>
       <c r="D228" s="1">
-        <f>COUNTIFS(B:B,B228)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E228" s="1">
@@ -5566,7 +5502,7 @@
         <v>87</v>
       </c>
       <c r="D229" s="1">
-        <f>COUNTIFS(B:B,B229)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E229" s="1">
@@ -5581,7 +5517,7 @@
         <v>241</v>
       </c>
       <c r="D230" s="1">
-        <f>COUNTIFS(B:B,B230)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E230" s="1">
@@ -5596,7 +5532,7 @@
         <v>215</v>
       </c>
       <c r="D231" s="1">
-        <f>COUNTIFS(B:B,B231)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E231" s="1">
@@ -5611,7 +5547,7 @@
         <v>235</v>
       </c>
       <c r="D232" s="1">
-        <f>COUNTIFS(B:B,B232)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E232" s="1">
@@ -5626,7 +5562,7 @@
         <v>88</v>
       </c>
       <c r="D233" s="1">
-        <f>COUNTIFS(B:B,B233)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E233" s="1">
@@ -5641,7 +5577,7 @@
         <v>159</v>
       </c>
       <c r="D234" s="1">
-        <f>COUNTIFS(B:B,B234)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E234" s="1">
@@ -5656,7 +5592,7 @@
         <v>89</v>
       </c>
       <c r="D235" s="1">
-        <f>COUNTIFS(B:B,B235)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E235" s="1">
@@ -5671,7 +5607,7 @@
         <v>214</v>
       </c>
       <c r="D236" s="1">
-        <f>COUNTIFS(B:B,B236)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E236" s="1">
@@ -5686,7 +5622,7 @@
         <v>176</v>
       </c>
       <c r="D237" s="1">
-        <f>COUNTIFS(B:B,B237)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E237" s="1">
@@ -5701,7 +5637,7 @@
         <v>207</v>
       </c>
       <c r="D238" s="1">
-        <f>COUNTIFS(B:B,B238)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E238" s="1">
@@ -5716,7 +5652,7 @@
         <v>222</v>
       </c>
       <c r="D239" s="1">
-        <f>COUNTIFS(B:B,B239)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E239" s="1">
@@ -5731,7 +5667,7 @@
         <v>213</v>
       </c>
       <c r="D240" s="1">
-        <f>COUNTIFS(B:B,B240)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E240" s="1">
@@ -5746,7 +5682,7 @@
         <v>273</v>
       </c>
       <c r="D241" s="1">
-        <f>COUNTIFS(B:B,B241)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E241" s="1">
@@ -5761,7 +5697,7 @@
         <v>229</v>
       </c>
       <c r="D242" s="1">
-        <f>COUNTIFS(B:B,B242)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E242" s="1">
@@ -5776,7 +5712,7 @@
         <v>161</v>
       </c>
       <c r="D243" s="1">
-        <f>COUNTIFS(B:B,B243)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E243" s="1">
@@ -5791,7 +5727,7 @@
         <v>90</v>
       </c>
       <c r="D244" s="1">
-        <f>COUNTIFS(B:B,B244)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E244" s="1">
@@ -5806,7 +5742,7 @@
         <v>253</v>
       </c>
       <c r="D245" s="1">
-        <f>COUNTIFS(B:B,B245)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E245" s="1">
@@ -5821,7 +5757,7 @@
         <v>91</v>
       </c>
       <c r="D246" s="1">
-        <f>COUNTIFS(B:B,B246)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E246" s="1">
@@ -5836,7 +5772,7 @@
         <v>92</v>
       </c>
       <c r="D247" s="1">
-        <f>COUNTIFS(B:B,B247)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E247" s="1">
@@ -5851,7 +5787,7 @@
         <v>196</v>
       </c>
       <c r="D248" s="1">
-        <f>COUNTIFS(B:B,B248)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E248" s="1">
@@ -5866,7 +5802,7 @@
         <v>93</v>
       </c>
       <c r="D249" s="1">
-        <f>COUNTIFS(B:B,B249)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E249" s="1">
@@ -5881,7 +5817,7 @@
         <v>203</v>
       </c>
       <c r="D250" s="1">
-        <f>COUNTIFS(B:B,B250)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E250" s="1">
@@ -5896,7 +5832,7 @@
         <v>94</v>
       </c>
       <c r="D251" s="1">
-        <f>COUNTIFS(B:B,B251)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E251" s="1">
@@ -5911,7 +5847,7 @@
         <v>105</v>
       </c>
       <c r="D252" s="1">
-        <f>COUNTIFS(B:B,B252)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E252" s="1">
@@ -5926,7 +5862,7 @@
         <v>95</v>
       </c>
       <c r="D253" s="1">
-        <f>COUNTIFS(B:B,B253)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E253" s="1">
@@ -5941,7 +5877,7 @@
         <v>114</v>
       </c>
       <c r="D254" s="1">
-        <f>COUNTIFS(B:B,B254)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E254" s="1">
@@ -5956,7 +5892,7 @@
         <v>184</v>
       </c>
       <c r="D255" s="1">
-        <f>COUNTIFS(B:B,B255)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E255" s="1">
@@ -5971,7 +5907,7 @@
         <v>96</v>
       </c>
       <c r="D256" s="1">
-        <f>COUNTIFS(B:B,B256)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E256" s="1">
@@ -5986,7 +5922,7 @@
         <v>201</v>
       </c>
       <c r="D257" s="1">
-        <f>COUNTIFS(B:B,B257)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E257" s="1">
@@ -6001,7 +5937,7 @@
         <v>166</v>
       </c>
       <c r="D258" s="1">
-        <f>COUNTIFS(B:B,B258)</f>
+        <f t="shared" ref="D258:D279" si="4">COUNTIFS(B:B,B258)</f>
         <v>1</v>
       </c>
       <c r="E258" s="1">
@@ -6016,7 +5952,7 @@
         <v>227</v>
       </c>
       <c r="D259" s="1">
-        <f>COUNTIFS(B:B,B259)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E259" s="1">
@@ -6031,7 +5967,7 @@
         <v>275</v>
       </c>
       <c r="D260" s="1">
-        <f>COUNTIFS(B:B,B260)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E260" s="1">
@@ -6046,7 +5982,7 @@
         <v>115</v>
       </c>
       <c r="D261" s="1">
-        <f>COUNTIFS(B:B,B261)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E261" s="1">
@@ -6061,7 +5997,7 @@
         <v>97</v>
       </c>
       <c r="D262" s="1">
-        <f>COUNTIFS(B:B,B262)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E262" s="1">
@@ -6076,7 +6012,7 @@
         <v>168</v>
       </c>
       <c r="D263" s="1">
-        <f>COUNTIFS(B:B,B263)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E263" s="1">
@@ -6091,7 +6027,7 @@
         <v>185</v>
       </c>
       <c r="D264" s="1">
-        <f>COUNTIFS(B:B,B264)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E264" s="1">
@@ -6106,7 +6042,7 @@
         <v>98</v>
       </c>
       <c r="D265" s="1">
-        <f>COUNTIFS(B:B,B265)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E265" s="1">
@@ -6121,7 +6057,7 @@
         <v>99</v>
       </c>
       <c r="D266" s="1">
-        <f>COUNTIFS(B:B,B266)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E266" s="1">
@@ -6136,7 +6072,7 @@
         <v>231</v>
       </c>
       <c r="D267" s="1">
-        <f>COUNTIFS(B:B,B267)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E267" s="1">
@@ -6151,7 +6087,7 @@
         <v>100</v>
       </c>
       <c r="D268" s="1">
-        <f>COUNTIFS(B:B,B268)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E268" s="1">
@@ -6166,7 +6102,7 @@
         <v>101</v>
       </c>
       <c r="D269" s="1">
-        <f>COUNTIFS(B:B,B269)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E269" s="1">
@@ -6181,7 +6117,7 @@
         <v>110</v>
       </c>
       <c r="D270" s="1">
-        <f>COUNTIFS(B:B,B270)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E270" s="1">
@@ -6196,7 +6132,7 @@
         <v>102</v>
       </c>
       <c r="D271" s="1">
-        <f>COUNTIFS(B:B,B271)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E271" s="1">
@@ -6211,7 +6147,7 @@
         <v>109</v>
       </c>
       <c r="D272" s="1">
-        <f>COUNTIFS(B:B,B272)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E272" s="1">
@@ -6226,7 +6162,7 @@
         <v>149</v>
       </c>
       <c r="D273" s="1">
-        <f>COUNTIFS(B:B,B273)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E273" s="1">
@@ -6241,7 +6177,7 @@
         <v>174</v>
       </c>
       <c r="D274" s="1">
-        <f>COUNTIFS(B:B,B274)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E274" s="1">
@@ -6256,7 +6192,7 @@
         <v>103</v>
       </c>
       <c r="D275" s="1">
-        <f>COUNTIFS(B:B,B275)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E275" s="1">
@@ -6271,7 +6207,7 @@
         <v>217</v>
       </c>
       <c r="D276" s="1">
-        <f>COUNTIFS(B:B,B276)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E276" s="1">
@@ -6286,7 +6222,7 @@
         <v>118</v>
       </c>
       <c r="D277" s="1">
-        <f>COUNTIFS(B:B,B277)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E277" s="1">
@@ -6301,11 +6237,20 @@
         <v>104</v>
       </c>
       <c r="D278" s="1">
-        <f>COUNTIFS(B:B,B278)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E278" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D279" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/stock_list完整版.xlsx
+++ b/stock_list完整版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\【常用xlsx】\财务类\4.理财\量化\GitHub\ChristopherShen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF540B-6B22-4D90-B713-2F128A8FC1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D5608-F628-4396-B1B6-C7787F1245AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_list完整版" sheetId="1" r:id="rId1"/>
@@ -1211,7 +1211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1389,6 +1389,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1636,7 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1644,6 +1650,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2004,8 +2013,8 @@
   <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5468,7 +5477,7 @@
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="3" t="s">
         <v>267</v>
       </c>
       <c r="D227" s="1">
